--- a/Data/Processed/usa2.xlsx
+++ b/Data/Processed/usa2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellacue/Documents/Placement - Armed Peace/ArmedPeaceData/Data/Processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sm38679/Dropbox/research/ArmedPeaceData/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FFFF992-CFD1-D247-BBF4-932A8C7902B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F486B7-F412-D546-AE25-59405E65A606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="2911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="2910">
   <si>
     <t>ccode2</t>
   </si>
@@ -6353,9 +6353,6 @@
   </si>
   <si>
     <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
   </si>
   <si>
     <t>2109</t>
@@ -9104,10 +9101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2908"/>
+  <dimension ref="A1:E2907"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2126" workbookViewId="0">
-      <selection activeCell="B2145" sqref="B2145"/>
+    <sheetView tabSelected="1" topLeftCell="A2096" workbookViewId="0">
+      <selection activeCell="E2144" sqref="E2144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44956,7 +44953,7 @@
         <v>1</v>
       </c>
       <c r="D2109">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2109">
         <v>260</v>
@@ -44973,7 +44970,7 @@
         <v>1</v>
       </c>
       <c r="D2110">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2110">
         <v>260</v>
@@ -44990,7 +44987,7 @@
         <v>1</v>
       </c>
       <c r="D2111">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2111">
         <v>260</v>
@@ -45007,7 +45004,7 @@
         <v>1</v>
       </c>
       <c r="D2112">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2112">
         <v>260</v>
@@ -45024,7 +45021,7 @@
         <v>1</v>
       </c>
       <c r="D2113">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2113">
         <v>260</v>
@@ -45041,7 +45038,7 @@
         <v>1</v>
       </c>
       <c r="D2114">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2114">
         <v>260</v>
@@ -45058,7 +45055,7 @@
         <v>1</v>
       </c>
       <c r="D2115">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2115">
         <v>260</v>
@@ -45075,7 +45072,7 @@
         <v>1</v>
       </c>
       <c r="D2116">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2116">
         <v>260</v>
@@ -45092,7 +45089,7 @@
         <v>1</v>
       </c>
       <c r="D2117">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2117">
         <v>260</v>
@@ -45109,7 +45106,7 @@
         <v>1</v>
       </c>
       <c r="D2118">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2118">
         <v>260</v>
@@ -45126,7 +45123,7 @@
         <v>1</v>
       </c>
       <c r="D2119">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2119">
         <v>260</v>
@@ -45143,7 +45140,7 @@
         <v>1</v>
       </c>
       <c r="D2120">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2120">
         <v>260</v>
@@ -45160,7 +45157,7 @@
         <v>1</v>
       </c>
       <c r="D2121">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2121">
         <v>260</v>
@@ -45177,7 +45174,7 @@
         <v>1</v>
       </c>
       <c r="D2122">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2122">
         <v>260</v>
@@ -45194,7 +45191,7 @@
         <v>1</v>
       </c>
       <c r="D2123">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2123">
         <v>260</v>
@@ -45211,7 +45208,7 @@
         <v>1</v>
       </c>
       <c r="D2124">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2124">
         <v>260</v>
@@ -45228,7 +45225,7 @@
         <v>1</v>
       </c>
       <c r="D2125">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2125">
         <v>260</v>
@@ -45245,7 +45242,7 @@
         <v>1</v>
       </c>
       <c r="D2126">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2126">
         <v>260</v>
@@ -45262,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="D2127">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2127">
         <v>260</v>
@@ -45279,7 +45276,7 @@
         <v>1</v>
       </c>
       <c r="D2128">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2128">
         <v>260</v>
@@ -45296,7 +45293,7 @@
         <v>1</v>
       </c>
       <c r="D2129">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2129">
         <v>260</v>
@@ -45313,7 +45310,7 @@
         <v>1</v>
       </c>
       <c r="D2130">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2130">
         <v>260</v>
@@ -45330,7 +45327,7 @@
         <v>1</v>
       </c>
       <c r="D2131">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2131">
         <v>260</v>
@@ -45347,7 +45344,7 @@
         <v>1</v>
       </c>
       <c r="D2132">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2132">
         <v>260</v>
@@ -45364,7 +45361,7 @@
         <v>1</v>
       </c>
       <c r="D2133">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2133">
         <v>260</v>
@@ -45381,7 +45378,7 @@
         <v>1</v>
       </c>
       <c r="D2134">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2134">
         <v>260</v>
@@ -45398,7 +45395,7 @@
         <v>1</v>
       </c>
       <c r="D2135">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2135">
         <v>260</v>
@@ -45415,7 +45412,7 @@
         <v>1</v>
       </c>
       <c r="D2136">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2136">
         <v>260</v>
@@ -45432,7 +45429,7 @@
         <v>1</v>
       </c>
       <c r="D2137">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2137">
         <v>260</v>
@@ -45449,7 +45446,7 @@
         <v>1</v>
       </c>
       <c r="D2138">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2138">
         <v>260</v>
@@ -45466,7 +45463,7 @@
         <v>1</v>
       </c>
       <c r="D2139">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2139">
         <v>260</v>
@@ -45483,7 +45480,7 @@
         <v>1</v>
       </c>
       <c r="D2140">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2140">
         <v>260</v>
@@ -45500,7 +45497,7 @@
         <v>1</v>
       </c>
       <c r="D2141">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2141">
         <v>260</v>
@@ -45517,7 +45514,7 @@
         <v>1</v>
       </c>
       <c r="D2142">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2142">
         <v>260</v>
@@ -45534,7 +45531,7 @@
         <v>1</v>
       </c>
       <c r="D2143">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2143">
         <v>260</v>
@@ -45551,10 +45548,10 @@
         <v>1</v>
       </c>
       <c r="D2144">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2144">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2145" spans="1:5" x14ac:dyDescent="0.2">
@@ -45562,16 +45559,16 @@
         <v>2147</v>
       </c>
       <c r="B2145">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="C2145">
         <v>1</v>
       </c>
       <c r="D2145">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="E2145">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2146" spans="1:5" x14ac:dyDescent="0.2">
@@ -45585,7 +45582,7 @@
         <v>1</v>
       </c>
       <c r="D2146">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2146">
         <v>290</v>
@@ -45602,7 +45599,7 @@
         <v>1</v>
       </c>
       <c r="D2147">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2147">
         <v>290</v>
@@ -45619,7 +45616,7 @@
         <v>1</v>
       </c>
       <c r="D2148">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2148">
         <v>290</v>
@@ -45636,7 +45633,7 @@
         <v>1</v>
       </c>
       <c r="D2149">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2149">
         <v>290</v>
@@ -45653,7 +45650,7 @@
         <v>1</v>
       </c>
       <c r="D2150">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2150">
         <v>290</v>
@@ -45670,7 +45667,7 @@
         <v>1</v>
       </c>
       <c r="D2151">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2151">
         <v>290</v>
@@ -45687,7 +45684,7 @@
         <v>1</v>
       </c>
       <c r="D2152">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2152">
         <v>290</v>
@@ -45704,7 +45701,7 @@
         <v>1</v>
       </c>
       <c r="D2153">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2153">
         <v>290</v>
@@ -45721,7 +45718,7 @@
         <v>1</v>
       </c>
       <c r="D2154">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2154">
         <v>290</v>
@@ -45738,7 +45735,7 @@
         <v>1</v>
       </c>
       <c r="D2155">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2155">
         <v>290</v>
@@ -45755,7 +45752,7 @@
         <v>1</v>
       </c>
       <c r="D2156">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2156">
         <v>290</v>
@@ -45772,7 +45769,7 @@
         <v>1</v>
       </c>
       <c r="D2157">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2157">
         <v>290</v>
@@ -45789,7 +45786,7 @@
         <v>1</v>
       </c>
       <c r="D2158">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2158">
         <v>290</v>
@@ -45800,16 +45797,16 @@
         <v>2161</v>
       </c>
       <c r="B2159">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C2159">
         <v>1</v>
       </c>
       <c r="D2159">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="E2159">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2160" spans="1:5" x14ac:dyDescent="0.2">
@@ -45823,7 +45820,7 @@
         <v>1</v>
       </c>
       <c r="D2160">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2160">
         <v>310</v>
@@ -45840,7 +45837,7 @@
         <v>1</v>
       </c>
       <c r="D2161">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2161">
         <v>310</v>
@@ -45857,7 +45854,7 @@
         <v>1</v>
       </c>
       <c r="D2162">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2162">
         <v>310</v>
@@ -45874,7 +45871,7 @@
         <v>1</v>
       </c>
       <c r="D2163">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2163">
         <v>310</v>
@@ -45891,7 +45888,7 @@
         <v>1</v>
       </c>
       <c r="D2164">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2164">
         <v>310</v>
@@ -45908,7 +45905,7 @@
         <v>1</v>
       </c>
       <c r="D2165">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2165">
         <v>310</v>
@@ -45925,7 +45922,7 @@
         <v>1</v>
       </c>
       <c r="D2166">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2166">
         <v>310</v>
@@ -45942,7 +45939,7 @@
         <v>1</v>
       </c>
       <c r="D2167">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2167">
         <v>310</v>
@@ -45959,7 +45956,7 @@
         <v>1</v>
       </c>
       <c r="D2168">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2168">
         <v>310</v>
@@ -45976,7 +45973,7 @@
         <v>1</v>
       </c>
       <c r="D2169">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2169">
         <v>310</v>
@@ -45993,7 +45990,7 @@
         <v>1</v>
       </c>
       <c r="D2170">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2170">
         <v>310</v>
@@ -46010,7 +46007,7 @@
         <v>1</v>
       </c>
       <c r="D2171">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2171">
         <v>310</v>
@@ -46027,7 +46024,7 @@
         <v>1</v>
       </c>
       <c r="D2172">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2172">
         <v>310</v>
@@ -46038,16 +46035,16 @@
         <v>2175</v>
       </c>
       <c r="B2173">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C2173">
         <v>1</v>
       </c>
       <c r="D2173">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="E2173">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2174" spans="1:5" x14ac:dyDescent="0.2">
@@ -46061,7 +46058,7 @@
         <v>1</v>
       </c>
       <c r="D2174">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2174">
         <v>316</v>
@@ -46078,7 +46075,7 @@
         <v>1</v>
       </c>
       <c r="D2175">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2175">
         <v>316</v>
@@ -46095,7 +46092,7 @@
         <v>1</v>
       </c>
       <c r="D2176">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2176">
         <v>316</v>
@@ -46112,7 +46109,7 @@
         <v>1</v>
       </c>
       <c r="D2177">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2177">
         <v>316</v>
@@ -46129,7 +46126,7 @@
         <v>1</v>
       </c>
       <c r="D2178">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2178">
         <v>316</v>
@@ -46146,7 +46143,7 @@
         <v>1</v>
       </c>
       <c r="D2179">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2179">
         <v>316</v>
@@ -46163,7 +46160,7 @@
         <v>1</v>
       </c>
       <c r="D2180">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2180">
         <v>316</v>
@@ -46180,7 +46177,7 @@
         <v>1</v>
       </c>
       <c r="D2181">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2181">
         <v>316</v>
@@ -46197,7 +46194,7 @@
         <v>1</v>
       </c>
       <c r="D2182">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2182">
         <v>316</v>
@@ -46214,7 +46211,7 @@
         <v>1</v>
       </c>
       <c r="D2183">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2183">
         <v>316</v>
@@ -46231,7 +46228,7 @@
         <v>1</v>
       </c>
       <c r="D2184">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2184">
         <v>316</v>
@@ -46248,7 +46245,7 @@
         <v>1</v>
       </c>
       <c r="D2185">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2185">
         <v>316</v>
@@ -46265,7 +46262,7 @@
         <v>1</v>
       </c>
       <c r="D2186">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2186">
         <v>316</v>
@@ -46276,16 +46273,16 @@
         <v>2189</v>
       </c>
       <c r="B2187">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C2187">
         <v>1</v>
       </c>
       <c r="D2187">
-        <v>2012</v>
+        <v>1949</v>
       </c>
       <c r="E2187">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2188" spans="1:5" x14ac:dyDescent="0.2">
@@ -46299,7 +46296,7 @@
         <v>1</v>
       </c>
       <c r="D2188">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E2188">
         <v>325</v>
@@ -46316,7 +46313,7 @@
         <v>1</v>
       </c>
       <c r="D2189">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E2189">
         <v>325</v>
@@ -46333,7 +46330,7 @@
         <v>1</v>
       </c>
       <c r="D2190">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2190">
         <v>325</v>
@@ -46350,7 +46347,7 @@
         <v>1</v>
       </c>
       <c r="D2191">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2191">
         <v>325</v>
@@ -46367,7 +46364,7 @@
         <v>1</v>
       </c>
       <c r="D2192">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2192">
         <v>325</v>
@@ -46384,7 +46381,7 @@
         <v>1</v>
       </c>
       <c r="D2193">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2193">
         <v>325</v>
@@ -46401,7 +46398,7 @@
         <v>1</v>
       </c>
       <c r="D2194">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2194">
         <v>325</v>
@@ -46418,7 +46415,7 @@
         <v>1</v>
       </c>
       <c r="D2195">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2195">
         <v>325</v>
@@ -46435,7 +46432,7 @@
         <v>1</v>
       </c>
       <c r="D2196">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2196">
         <v>325</v>
@@ -46452,7 +46449,7 @@
         <v>1</v>
       </c>
       <c r="D2197">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2197">
         <v>325</v>
@@ -46469,7 +46466,7 @@
         <v>1</v>
       </c>
       <c r="D2198">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2198">
         <v>325</v>
@@ -46486,7 +46483,7 @@
         <v>1</v>
       </c>
       <c r="D2199">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2199">
         <v>325</v>
@@ -46503,7 +46500,7 @@
         <v>1</v>
       </c>
       <c r="D2200">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2200">
         <v>325</v>
@@ -46520,7 +46517,7 @@
         <v>1</v>
       </c>
       <c r="D2201">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2201">
         <v>325</v>
@@ -46537,7 +46534,7 @@
         <v>1</v>
       </c>
       <c r="D2202">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2202">
         <v>325</v>
@@ -46554,7 +46551,7 @@
         <v>1</v>
       </c>
       <c r="D2203">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2203">
         <v>325</v>
@@ -46571,7 +46568,7 @@
         <v>1</v>
       </c>
       <c r="D2204">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2204">
         <v>325</v>
@@ -46588,7 +46585,7 @@
         <v>1</v>
       </c>
       <c r="D2205">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2205">
         <v>325</v>
@@ -46605,7 +46602,7 @@
         <v>1</v>
       </c>
       <c r="D2206">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2206">
         <v>325</v>
@@ -46622,7 +46619,7 @@
         <v>1</v>
       </c>
       <c r="D2207">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2207">
         <v>325</v>
@@ -46639,7 +46636,7 @@
         <v>1</v>
       </c>
       <c r="D2208">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2208">
         <v>325</v>
@@ -46656,7 +46653,7 @@
         <v>1</v>
       </c>
       <c r="D2209">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2209">
         <v>325</v>
@@ -46673,7 +46670,7 @@
         <v>1</v>
       </c>
       <c r="D2210">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2210">
         <v>325</v>
@@ -46690,7 +46687,7 @@
         <v>1</v>
       </c>
       <c r="D2211">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2211">
         <v>325</v>
@@ -46707,7 +46704,7 @@
         <v>1</v>
       </c>
       <c r="D2212">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2212">
         <v>325</v>
@@ -46724,7 +46721,7 @@
         <v>1</v>
       </c>
       <c r="D2213">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2213">
         <v>325</v>
@@ -46741,7 +46738,7 @@
         <v>1</v>
       </c>
       <c r="D2214">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2214">
         <v>325</v>
@@ -46758,7 +46755,7 @@
         <v>1</v>
       </c>
       <c r="D2215">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2215">
         <v>325</v>
@@ -46775,7 +46772,7 @@
         <v>1</v>
       </c>
       <c r="D2216">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2216">
         <v>325</v>
@@ -46792,7 +46789,7 @@
         <v>1</v>
       </c>
       <c r="D2217">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2217">
         <v>325</v>
@@ -46809,7 +46806,7 @@
         <v>1</v>
       </c>
       <c r="D2218">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2218">
         <v>325</v>
@@ -46826,7 +46823,7 @@
         <v>1</v>
       </c>
       <c r="D2219">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2219">
         <v>325</v>
@@ -46843,7 +46840,7 @@
         <v>1</v>
       </c>
       <c r="D2220">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2220">
         <v>325</v>
@@ -46860,7 +46857,7 @@
         <v>1</v>
       </c>
       <c r="D2221">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2221">
         <v>325</v>
@@ -46877,7 +46874,7 @@
         <v>1</v>
       </c>
       <c r="D2222">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2222">
         <v>325</v>
@@ -46894,7 +46891,7 @@
         <v>1</v>
       </c>
       <c r="D2223">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2223">
         <v>325</v>
@@ -46911,7 +46908,7 @@
         <v>1</v>
       </c>
       <c r="D2224">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2224">
         <v>325</v>
@@ -46928,7 +46925,7 @@
         <v>1</v>
       </c>
       <c r="D2225">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2225">
         <v>325</v>
@@ -46945,7 +46942,7 @@
         <v>1</v>
       </c>
       <c r="D2226">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2226">
         <v>325</v>
@@ -46962,7 +46959,7 @@
         <v>1</v>
       </c>
       <c r="D2227">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2227">
         <v>325</v>
@@ -46979,7 +46976,7 @@
         <v>1</v>
       </c>
       <c r="D2228">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2228">
         <v>325</v>
@@ -46996,7 +46993,7 @@
         <v>1</v>
       </c>
       <c r="D2229">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2229">
         <v>325</v>
@@ -47013,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="D2230">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2230">
         <v>325</v>
@@ -47030,7 +47027,7 @@
         <v>1</v>
       </c>
       <c r="D2231">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2231">
         <v>325</v>
@@ -47047,7 +47044,7 @@
         <v>1</v>
       </c>
       <c r="D2232">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2232">
         <v>325</v>
@@ -47064,7 +47061,7 @@
         <v>1</v>
       </c>
       <c r="D2233">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2233">
         <v>325</v>
@@ -47081,7 +47078,7 @@
         <v>1</v>
       </c>
       <c r="D2234">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2234">
         <v>325</v>
@@ -47098,7 +47095,7 @@
         <v>1</v>
       </c>
       <c r="D2235">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2235">
         <v>325</v>
@@ -47115,7 +47112,7 @@
         <v>1</v>
       </c>
       <c r="D2236">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2236">
         <v>325</v>
@@ -47132,7 +47129,7 @@
         <v>1</v>
       </c>
       <c r="D2237">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2237">
         <v>325</v>
@@ -47149,7 +47146,7 @@
         <v>1</v>
       </c>
       <c r="D2238">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2238">
         <v>325</v>
@@ -47166,7 +47163,7 @@
         <v>1</v>
       </c>
       <c r="D2239">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2239">
         <v>325</v>
@@ -47183,7 +47180,7 @@
         <v>1</v>
       </c>
       <c r="D2240">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2240">
         <v>325</v>
@@ -47200,7 +47197,7 @@
         <v>1</v>
       </c>
       <c r="D2241">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2241">
         <v>325</v>
@@ -47217,7 +47214,7 @@
         <v>1</v>
       </c>
       <c r="D2242">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2242">
         <v>325</v>
@@ -47234,7 +47231,7 @@
         <v>1</v>
       </c>
       <c r="D2243">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2243">
         <v>325</v>
@@ -47251,7 +47248,7 @@
         <v>1</v>
       </c>
       <c r="D2244">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2244">
         <v>325</v>
@@ -47268,7 +47265,7 @@
         <v>1</v>
       </c>
       <c r="D2245">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2245">
         <v>325</v>
@@ -47285,7 +47282,7 @@
         <v>1</v>
       </c>
       <c r="D2246">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2246">
         <v>325</v>
@@ -47302,7 +47299,7 @@
         <v>1</v>
       </c>
       <c r="D2247">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2247">
         <v>325</v>
@@ -47319,7 +47316,7 @@
         <v>1</v>
       </c>
       <c r="D2248">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2248">
         <v>325</v>
@@ -47336,7 +47333,7 @@
         <v>1</v>
       </c>
       <c r="D2249">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2249">
         <v>325</v>
@@ -47353,7 +47350,7 @@
         <v>1</v>
       </c>
       <c r="D2250">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2250">
         <v>325</v>
@@ -47364,16 +47361,16 @@
         <v>2253</v>
       </c>
       <c r="B2251">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="C2251">
         <v>1</v>
       </c>
       <c r="D2251">
-        <v>2012</v>
+        <v>1951</v>
       </c>
       <c r="E2251">
-        <v>325</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2252" spans="1:5" x14ac:dyDescent="0.2">
@@ -47387,7 +47384,7 @@
         <v>1</v>
       </c>
       <c r="D2252">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2252">
         <v>350</v>
@@ -47404,7 +47401,7 @@
         <v>1</v>
       </c>
       <c r="D2253">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2253">
         <v>350</v>
@@ -47421,7 +47418,7 @@
         <v>1</v>
       </c>
       <c r="D2254">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2254">
         <v>350</v>
@@ -47438,7 +47435,7 @@
         <v>1</v>
       </c>
       <c r="D2255">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2255">
         <v>350</v>
@@ -47455,7 +47452,7 @@
         <v>1</v>
       </c>
       <c r="D2256">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2256">
         <v>350</v>
@@ -47472,7 +47469,7 @@
         <v>1</v>
       </c>
       <c r="D2257">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2257">
         <v>350</v>
@@ -47489,7 +47486,7 @@
         <v>1</v>
       </c>
       <c r="D2258">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2258">
         <v>350</v>
@@ -47506,7 +47503,7 @@
         <v>1</v>
       </c>
       <c r="D2259">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2259">
         <v>350</v>
@@ -47523,7 +47520,7 @@
         <v>1</v>
       </c>
       <c r="D2260">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2260">
         <v>350</v>
@@ -47540,7 +47537,7 @@
         <v>1</v>
       </c>
       <c r="D2261">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2261">
         <v>350</v>
@@ -47557,7 +47554,7 @@
         <v>1</v>
       </c>
       <c r="D2262">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2262">
         <v>350</v>
@@ -47574,7 +47571,7 @@
         <v>1</v>
       </c>
       <c r="D2263">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2263">
         <v>350</v>
@@ -47591,7 +47588,7 @@
         <v>1</v>
       </c>
       <c r="D2264">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2264">
         <v>350</v>
@@ -47608,7 +47605,7 @@
         <v>1</v>
       </c>
       <c r="D2265">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2265">
         <v>350</v>
@@ -47625,7 +47622,7 @@
         <v>1</v>
       </c>
       <c r="D2266">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2266">
         <v>350</v>
@@ -47642,7 +47639,7 @@
         <v>1</v>
       </c>
       <c r="D2267">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2267">
         <v>350</v>
@@ -47659,7 +47656,7 @@
         <v>1</v>
       </c>
       <c r="D2268">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2268">
         <v>350</v>
@@ -47676,7 +47673,7 @@
         <v>1</v>
       </c>
       <c r="D2269">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2269">
         <v>350</v>
@@ -47693,7 +47690,7 @@
         <v>1</v>
       </c>
       <c r="D2270">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2270">
         <v>350</v>
@@ -47710,7 +47707,7 @@
         <v>1</v>
       </c>
       <c r="D2271">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2271">
         <v>350</v>
@@ -47727,7 +47724,7 @@
         <v>1</v>
       </c>
       <c r="D2272">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2272">
         <v>350</v>
@@ -47744,7 +47741,7 @@
         <v>1</v>
       </c>
       <c r="D2273">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2273">
         <v>350</v>
@@ -47761,7 +47758,7 @@
         <v>1</v>
       </c>
       <c r="D2274">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2274">
         <v>350</v>
@@ -47778,7 +47775,7 @@
         <v>1</v>
       </c>
       <c r="D2275">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2275">
         <v>350</v>
@@ -47795,7 +47792,7 @@
         <v>1</v>
       </c>
       <c r="D2276">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2276">
         <v>350</v>
@@ -47812,7 +47809,7 @@
         <v>1</v>
       </c>
       <c r="D2277">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2277">
         <v>350</v>
@@ -47829,7 +47826,7 @@
         <v>1</v>
       </c>
       <c r="D2278">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2278">
         <v>350</v>
@@ -47846,7 +47843,7 @@
         <v>1</v>
       </c>
       <c r="D2279">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2279">
         <v>350</v>
@@ -47863,7 +47860,7 @@
         <v>1</v>
       </c>
       <c r="D2280">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2280">
         <v>350</v>
@@ -47880,7 +47877,7 @@
         <v>1</v>
       </c>
       <c r="D2281">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2281">
         <v>350</v>
@@ -47897,7 +47894,7 @@
         <v>1</v>
       </c>
       <c r="D2282">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2282">
         <v>350</v>
@@ -47914,7 +47911,7 @@
         <v>1</v>
       </c>
       <c r="D2283">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2283">
         <v>350</v>
@@ -47931,7 +47928,7 @@
         <v>1</v>
       </c>
       <c r="D2284">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2284">
         <v>350</v>
@@ -47948,7 +47945,7 @@
         <v>1</v>
       </c>
       <c r="D2285">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2285">
         <v>350</v>
@@ -47965,7 +47962,7 @@
         <v>1</v>
       </c>
       <c r="D2286">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2286">
         <v>350</v>
@@ -47982,7 +47979,7 @@
         <v>1</v>
       </c>
       <c r="D2287">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2287">
         <v>350</v>
@@ -47999,7 +47996,7 @@
         <v>1</v>
       </c>
       <c r="D2288">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2288">
         <v>350</v>
@@ -48016,7 +48013,7 @@
         <v>1</v>
       </c>
       <c r="D2289">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2289">
         <v>350</v>
@@ -48033,7 +48030,7 @@
         <v>1</v>
       </c>
       <c r="D2290">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2290">
         <v>350</v>
@@ -48050,7 +48047,7 @@
         <v>1</v>
       </c>
       <c r="D2291">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2291">
         <v>350</v>
@@ -48067,7 +48064,7 @@
         <v>1</v>
       </c>
       <c r="D2292">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2292">
         <v>350</v>
@@ -48084,7 +48081,7 @@
         <v>1</v>
       </c>
       <c r="D2293">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2293">
         <v>350</v>
@@ -48101,7 +48098,7 @@
         <v>1</v>
       </c>
       <c r="D2294">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2294">
         <v>350</v>
@@ -48118,7 +48115,7 @@
         <v>1</v>
       </c>
       <c r="D2295">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2295">
         <v>350</v>
@@ -48135,7 +48132,7 @@
         <v>1</v>
       </c>
       <c r="D2296">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2296">
         <v>350</v>
@@ -48152,7 +48149,7 @@
         <v>1</v>
       </c>
       <c r="D2297">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2297">
         <v>350</v>
@@ -48169,7 +48166,7 @@
         <v>1</v>
       </c>
       <c r="D2298">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2298">
         <v>350</v>
@@ -48186,7 +48183,7 @@
         <v>1</v>
       </c>
       <c r="D2299">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2299">
         <v>350</v>
@@ -48203,7 +48200,7 @@
         <v>1</v>
       </c>
       <c r="D2300">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2300">
         <v>350</v>
@@ -48220,7 +48217,7 @@
         <v>1</v>
       </c>
       <c r="D2301">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2301">
         <v>350</v>
@@ -48237,7 +48234,7 @@
         <v>1</v>
       </c>
       <c r="D2302">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2302">
         <v>350</v>
@@ -48254,7 +48251,7 @@
         <v>1</v>
       </c>
       <c r="D2303">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2303">
         <v>350</v>
@@ -48271,7 +48268,7 @@
         <v>1</v>
       </c>
       <c r="D2304">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2304">
         <v>350</v>
@@ -48288,7 +48285,7 @@
         <v>1</v>
       </c>
       <c r="D2305">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2305">
         <v>350</v>
@@ -48305,7 +48302,7 @@
         <v>1</v>
       </c>
       <c r="D2306">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2306">
         <v>350</v>
@@ -48322,7 +48319,7 @@
         <v>1</v>
       </c>
       <c r="D2307">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2307">
         <v>350</v>
@@ -48339,7 +48336,7 @@
         <v>1</v>
       </c>
       <c r="D2308">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2308">
         <v>350</v>
@@ -48356,7 +48353,7 @@
         <v>1</v>
       </c>
       <c r="D2309">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2309">
         <v>350</v>
@@ -48373,7 +48370,7 @@
         <v>1</v>
       </c>
       <c r="D2310">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2310">
         <v>350</v>
@@ -48390,7 +48387,7 @@
         <v>1</v>
       </c>
       <c r="D2311">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2311">
         <v>350</v>
@@ -48407,7 +48404,7 @@
         <v>1</v>
       </c>
       <c r="D2312">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2312">
         <v>350</v>
@@ -48418,16 +48415,16 @@
         <v>2315</v>
       </c>
       <c r="B2313">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="C2313">
         <v>1</v>
       </c>
       <c r="D2313">
-        <v>2012</v>
+        <v>1949</v>
       </c>
       <c r="E2313">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2314" spans="1:5" x14ac:dyDescent="0.2">
@@ -48441,7 +48438,7 @@
         <v>1</v>
       </c>
       <c r="D2314">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E2314">
         <v>385</v>
@@ -48458,7 +48455,7 @@
         <v>1</v>
       </c>
       <c r="D2315">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E2315">
         <v>385</v>
@@ -48475,7 +48472,7 @@
         <v>1</v>
       </c>
       <c r="D2316">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2316">
         <v>385</v>
@@ -48492,7 +48489,7 @@
         <v>1</v>
       </c>
       <c r="D2317">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2317">
         <v>385</v>
@@ -48509,7 +48506,7 @@
         <v>1</v>
       </c>
       <c r="D2318">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2318">
         <v>385</v>
@@ -48526,7 +48523,7 @@
         <v>1</v>
       </c>
       <c r="D2319">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2319">
         <v>385</v>
@@ -48543,7 +48540,7 @@
         <v>1</v>
       </c>
       <c r="D2320">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2320">
         <v>385</v>
@@ -48560,7 +48557,7 @@
         <v>1</v>
       </c>
       <c r="D2321">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2321">
         <v>385</v>
@@ -48577,7 +48574,7 @@
         <v>1</v>
       </c>
       <c r="D2322">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2322">
         <v>385</v>
@@ -48594,7 +48591,7 @@
         <v>1</v>
       </c>
       <c r="D2323">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2323">
         <v>385</v>
@@ -48611,7 +48608,7 @@
         <v>1</v>
       </c>
       <c r="D2324">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2324">
         <v>385</v>
@@ -48628,7 +48625,7 @@
         <v>1</v>
       </c>
       <c r="D2325">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2325">
         <v>385</v>
@@ -48645,7 +48642,7 @@
         <v>1</v>
       </c>
       <c r="D2326">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2326">
         <v>385</v>
@@ -48662,7 +48659,7 @@
         <v>1</v>
       </c>
       <c r="D2327">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2327">
         <v>385</v>
@@ -48679,7 +48676,7 @@
         <v>1</v>
       </c>
       <c r="D2328">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2328">
         <v>385</v>
@@ -48696,7 +48693,7 @@
         <v>1</v>
       </c>
       <c r="D2329">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2329">
         <v>385</v>
@@ -48713,7 +48710,7 @@
         <v>1</v>
       </c>
       <c r="D2330">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2330">
         <v>385</v>
@@ -48730,7 +48727,7 @@
         <v>1</v>
       </c>
       <c r="D2331">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2331">
         <v>385</v>
@@ -48747,7 +48744,7 @@
         <v>1</v>
       </c>
       <c r="D2332">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2332">
         <v>385</v>
@@ -48764,7 +48761,7 @@
         <v>1</v>
       </c>
       <c r="D2333">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2333">
         <v>385</v>
@@ -48781,7 +48778,7 @@
         <v>1</v>
       </c>
       <c r="D2334">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2334">
         <v>385</v>
@@ -48798,7 +48795,7 @@
         <v>1</v>
       </c>
       <c r="D2335">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2335">
         <v>385</v>
@@ -48815,7 +48812,7 @@
         <v>1</v>
       </c>
       <c r="D2336">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2336">
         <v>385</v>
@@ -48832,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="D2337">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2337">
         <v>385</v>
@@ -48849,7 +48846,7 @@
         <v>1</v>
       </c>
       <c r="D2338">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2338">
         <v>385</v>
@@ -48866,7 +48863,7 @@
         <v>1</v>
       </c>
       <c r="D2339">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2339">
         <v>385</v>
@@ -48883,7 +48880,7 @@
         <v>1</v>
       </c>
       <c r="D2340">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2340">
         <v>385</v>
@@ -48900,7 +48897,7 @@
         <v>1</v>
       </c>
       <c r="D2341">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2341">
         <v>385</v>
@@ -48917,7 +48914,7 @@
         <v>1</v>
       </c>
       <c r="D2342">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2342">
         <v>385</v>
@@ -48934,7 +48931,7 @@
         <v>1</v>
       </c>
       <c r="D2343">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2343">
         <v>385</v>
@@ -48951,7 +48948,7 @@
         <v>1</v>
       </c>
       <c r="D2344">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2344">
         <v>385</v>
@@ -48968,7 +48965,7 @@
         <v>1</v>
       </c>
       <c r="D2345">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2345">
         <v>385</v>
@@ -48985,7 +48982,7 @@
         <v>1</v>
       </c>
       <c r="D2346">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2346">
         <v>385</v>
@@ -49002,7 +48999,7 @@
         <v>1</v>
       </c>
       <c r="D2347">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2347">
         <v>385</v>
@@ -49019,7 +49016,7 @@
         <v>1</v>
       </c>
       <c r="D2348">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2348">
         <v>385</v>
@@ -49036,7 +49033,7 @@
         <v>1</v>
       </c>
       <c r="D2349">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2349">
         <v>385</v>
@@ -49053,7 +49050,7 @@
         <v>1</v>
       </c>
       <c r="D2350">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2350">
         <v>385</v>
@@ -49070,7 +49067,7 @@
         <v>1</v>
       </c>
       <c r="D2351">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2351">
         <v>385</v>
@@ -49087,7 +49084,7 @@
         <v>1</v>
       </c>
       <c r="D2352">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2352">
         <v>385</v>
@@ -49104,7 +49101,7 @@
         <v>1</v>
       </c>
       <c r="D2353">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2353">
         <v>385</v>
@@ -49121,7 +49118,7 @@
         <v>1</v>
       </c>
       <c r="D2354">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2354">
         <v>385</v>
@@ -49138,7 +49135,7 @@
         <v>1</v>
       </c>
       <c r="D2355">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2355">
         <v>385</v>
@@ -49155,7 +49152,7 @@
         <v>1</v>
       </c>
       <c r="D2356">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2356">
         <v>385</v>
@@ -49172,7 +49169,7 @@
         <v>1</v>
       </c>
       <c r="D2357">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2357">
         <v>385</v>
@@ -49189,7 +49186,7 @@
         <v>1</v>
       </c>
       <c r="D2358">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2358">
         <v>385</v>
@@ -49206,7 +49203,7 @@
         <v>1</v>
       </c>
       <c r="D2359">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2359">
         <v>385</v>
@@ -49223,7 +49220,7 @@
         <v>1</v>
       </c>
       <c r="D2360">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2360">
         <v>385</v>
@@ -49240,7 +49237,7 @@
         <v>1</v>
       </c>
       <c r="D2361">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2361">
         <v>385</v>
@@ -49257,7 +49254,7 @@
         <v>1</v>
       </c>
       <c r="D2362">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2362">
         <v>385</v>
@@ -49274,7 +49271,7 @@
         <v>1</v>
       </c>
       <c r="D2363">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2363">
         <v>385</v>
@@ -49291,7 +49288,7 @@
         <v>1</v>
       </c>
       <c r="D2364">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2364">
         <v>385</v>
@@ -49308,7 +49305,7 @@
         <v>1</v>
       </c>
       <c r="D2365">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2365">
         <v>385</v>
@@ -49325,7 +49322,7 @@
         <v>1</v>
       </c>
       <c r="D2366">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2366">
         <v>385</v>
@@ -49342,7 +49339,7 @@
         <v>1</v>
       </c>
       <c r="D2367">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2367">
         <v>385</v>
@@ -49359,7 +49356,7 @@
         <v>1</v>
       </c>
       <c r="D2368">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2368">
         <v>385</v>
@@ -49376,7 +49373,7 @@
         <v>1</v>
       </c>
       <c r="D2369">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2369">
         <v>385</v>
@@ -49393,7 +49390,7 @@
         <v>1</v>
       </c>
       <c r="D2370">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2370">
         <v>385</v>
@@ -49410,7 +49407,7 @@
         <v>1</v>
       </c>
       <c r="D2371">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2371">
         <v>385</v>
@@ -49427,7 +49424,7 @@
         <v>1</v>
       </c>
       <c r="D2372">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2372">
         <v>385</v>
@@ -49444,7 +49441,7 @@
         <v>1</v>
       </c>
       <c r="D2373">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2373">
         <v>385</v>
@@ -49461,7 +49458,7 @@
         <v>1</v>
       </c>
       <c r="D2374">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2374">
         <v>385</v>
@@ -49478,7 +49475,7 @@
         <v>1</v>
       </c>
       <c r="D2375">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2375">
         <v>385</v>
@@ -49495,7 +49492,7 @@
         <v>1</v>
       </c>
       <c r="D2376">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2376">
         <v>385</v>
@@ -49506,16 +49503,16 @@
         <v>2379</v>
       </c>
       <c r="B2377">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C2377">
         <v>1</v>
       </c>
       <c r="D2377">
-        <v>2012</v>
+        <v>1949</v>
       </c>
       <c r="E2377">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2378" spans="1:5" x14ac:dyDescent="0.2">
@@ -49529,7 +49526,7 @@
         <v>1</v>
       </c>
       <c r="D2378">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E2378">
         <v>390</v>
@@ -49546,7 +49543,7 @@
         <v>1</v>
       </c>
       <c r="D2379">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E2379">
         <v>390</v>
@@ -49563,7 +49560,7 @@
         <v>1</v>
       </c>
       <c r="D2380">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2380">
         <v>390</v>
@@ -49580,7 +49577,7 @@
         <v>1</v>
       </c>
       <c r="D2381">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2381">
         <v>390</v>
@@ -49597,7 +49594,7 @@
         <v>1</v>
       </c>
       <c r="D2382">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2382">
         <v>390</v>
@@ -49614,7 +49611,7 @@
         <v>1</v>
       </c>
       <c r="D2383">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2383">
         <v>390</v>
@@ -49631,7 +49628,7 @@
         <v>1</v>
       </c>
       <c r="D2384">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2384">
         <v>390</v>
@@ -49648,7 +49645,7 @@
         <v>1</v>
       </c>
       <c r="D2385">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2385">
         <v>390</v>
@@ -49665,7 +49662,7 @@
         <v>1</v>
       </c>
       <c r="D2386">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2386">
         <v>390</v>
@@ -49682,7 +49679,7 @@
         <v>1</v>
       </c>
       <c r="D2387">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2387">
         <v>390</v>
@@ -49699,7 +49696,7 @@
         <v>1</v>
       </c>
       <c r="D2388">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2388">
         <v>390</v>
@@ -49716,7 +49713,7 @@
         <v>1</v>
       </c>
       <c r="D2389">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2389">
         <v>390</v>
@@ -49733,7 +49730,7 @@
         <v>1</v>
       </c>
       <c r="D2390">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2390">
         <v>390</v>
@@ -49750,7 +49747,7 @@
         <v>1</v>
       </c>
       <c r="D2391">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2391">
         <v>390</v>
@@ -49767,7 +49764,7 @@
         <v>1</v>
       </c>
       <c r="D2392">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2392">
         <v>390</v>
@@ -49784,7 +49781,7 @@
         <v>1</v>
       </c>
       <c r="D2393">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2393">
         <v>390</v>
@@ -49801,7 +49798,7 @@
         <v>1</v>
       </c>
       <c r="D2394">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2394">
         <v>390</v>
@@ -49818,7 +49815,7 @@
         <v>1</v>
       </c>
       <c r="D2395">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2395">
         <v>390</v>
@@ -49835,7 +49832,7 @@
         <v>1</v>
       </c>
       <c r="D2396">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2396">
         <v>390</v>
@@ -49852,7 +49849,7 @@
         <v>1</v>
       </c>
       <c r="D2397">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2397">
         <v>390</v>
@@ -49869,7 +49866,7 @@
         <v>1</v>
       </c>
       <c r="D2398">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2398">
         <v>390</v>
@@ -49886,7 +49883,7 @@
         <v>1</v>
       </c>
       <c r="D2399">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2399">
         <v>390</v>
@@ -49903,7 +49900,7 @@
         <v>1</v>
       </c>
       <c r="D2400">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2400">
         <v>390</v>
@@ -49920,7 +49917,7 @@
         <v>1</v>
       </c>
       <c r="D2401">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2401">
         <v>390</v>
@@ -49937,7 +49934,7 @@
         <v>1</v>
       </c>
       <c r="D2402">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2402">
         <v>390</v>
@@ -49954,7 +49951,7 @@
         <v>1</v>
       </c>
       <c r="D2403">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2403">
         <v>390</v>
@@ -49971,7 +49968,7 @@
         <v>1</v>
       </c>
       <c r="D2404">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2404">
         <v>390</v>
@@ -49988,7 +49985,7 @@
         <v>1</v>
       </c>
       <c r="D2405">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2405">
         <v>390</v>
@@ -50005,7 +50002,7 @@
         <v>1</v>
       </c>
       <c r="D2406">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2406">
         <v>390</v>
@@ -50022,7 +50019,7 @@
         <v>1</v>
       </c>
       <c r="D2407">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2407">
         <v>390</v>
@@ -50039,7 +50036,7 @@
         <v>1</v>
       </c>
       <c r="D2408">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2408">
         <v>390</v>
@@ -50056,7 +50053,7 @@
         <v>1</v>
       </c>
       <c r="D2409">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2409">
         <v>390</v>
@@ -50073,7 +50070,7 @@
         <v>1</v>
       </c>
       <c r="D2410">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2410">
         <v>390</v>
@@ -50090,7 +50087,7 @@
         <v>1</v>
       </c>
       <c r="D2411">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2411">
         <v>390</v>
@@ -50107,7 +50104,7 @@
         <v>1</v>
       </c>
       <c r="D2412">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2412">
         <v>390</v>
@@ -50124,7 +50121,7 @@
         <v>1</v>
       </c>
       <c r="D2413">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2413">
         <v>390</v>
@@ -50141,7 +50138,7 @@
         <v>1</v>
       </c>
       <c r="D2414">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2414">
         <v>390</v>
@@ -50158,7 +50155,7 @@
         <v>1</v>
       </c>
       <c r="D2415">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2415">
         <v>390</v>
@@ -50175,7 +50172,7 @@
         <v>1</v>
       </c>
       <c r="D2416">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2416">
         <v>390</v>
@@ -50192,7 +50189,7 @@
         <v>1</v>
       </c>
       <c r="D2417">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2417">
         <v>390</v>
@@ -50209,7 +50206,7 @@
         <v>1</v>
       </c>
       <c r="D2418">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2418">
         <v>390</v>
@@ -50226,7 +50223,7 @@
         <v>1</v>
       </c>
       <c r="D2419">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2419">
         <v>390</v>
@@ -50243,7 +50240,7 @@
         <v>1</v>
       </c>
       <c r="D2420">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2420">
         <v>390</v>
@@ -50260,7 +50257,7 @@
         <v>1</v>
       </c>
       <c r="D2421">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2421">
         <v>390</v>
@@ -50277,7 +50274,7 @@
         <v>1</v>
       </c>
       <c r="D2422">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2422">
         <v>390</v>
@@ -50294,7 +50291,7 @@
         <v>1</v>
       </c>
       <c r="D2423">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2423">
         <v>390</v>
@@ -50311,7 +50308,7 @@
         <v>1</v>
       </c>
       <c r="D2424">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2424">
         <v>390</v>
@@ -50328,7 +50325,7 @@
         <v>1</v>
       </c>
       <c r="D2425">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2425">
         <v>390</v>
@@ -50345,7 +50342,7 @@
         <v>1</v>
       </c>
       <c r="D2426">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2426">
         <v>390</v>
@@ -50362,7 +50359,7 @@
         <v>1</v>
       </c>
       <c r="D2427">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2427">
         <v>390</v>
@@ -50379,7 +50376,7 @@
         <v>1</v>
       </c>
       <c r="D2428">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2428">
         <v>390</v>
@@ -50396,7 +50393,7 @@
         <v>1</v>
       </c>
       <c r="D2429">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2429">
         <v>390</v>
@@ -50413,7 +50410,7 @@
         <v>1</v>
       </c>
       <c r="D2430">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2430">
         <v>390</v>
@@ -50430,7 +50427,7 @@
         <v>1</v>
       </c>
       <c r="D2431">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2431">
         <v>390</v>
@@ -50447,7 +50444,7 @@
         <v>1</v>
       </c>
       <c r="D2432">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2432">
         <v>390</v>
@@ -50464,7 +50461,7 @@
         <v>1</v>
       </c>
       <c r="D2433">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2433">
         <v>390</v>
@@ -50481,7 +50478,7 @@
         <v>1</v>
       </c>
       <c r="D2434">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2434">
         <v>390</v>
@@ -50498,7 +50495,7 @@
         <v>1</v>
       </c>
       <c r="D2435">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2435">
         <v>390</v>
@@ -50515,7 +50512,7 @@
         <v>1</v>
       </c>
       <c r="D2436">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2436">
         <v>390</v>
@@ -50532,7 +50529,7 @@
         <v>1</v>
       </c>
       <c r="D2437">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2437">
         <v>390</v>
@@ -50549,7 +50546,7 @@
         <v>1</v>
       </c>
       <c r="D2438">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2438">
         <v>390</v>
@@ -50566,7 +50563,7 @@
         <v>1</v>
       </c>
       <c r="D2439">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2439">
         <v>390</v>
@@ -50583,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="D2440">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2440">
         <v>390</v>
@@ -50594,16 +50591,16 @@
         <v>2443</v>
       </c>
       <c r="B2441">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C2441">
         <v>1</v>
       </c>
       <c r="D2441">
-        <v>2012</v>
+        <v>1949</v>
       </c>
       <c r="E2441">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2442" spans="1:5" x14ac:dyDescent="0.2">
@@ -50617,7 +50614,7 @@
         <v>1</v>
       </c>
       <c r="D2442">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E2442">
         <v>395</v>
@@ -50634,7 +50631,7 @@
         <v>1</v>
       </c>
       <c r="D2443">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E2443">
         <v>395</v>
@@ -50651,7 +50648,7 @@
         <v>1</v>
       </c>
       <c r="D2444">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2444">
         <v>395</v>
@@ -50668,7 +50665,7 @@
         <v>1</v>
       </c>
       <c r="D2445">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2445">
         <v>395</v>
@@ -50685,7 +50682,7 @@
         <v>1</v>
       </c>
       <c r="D2446">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2446">
         <v>395</v>
@@ -50702,7 +50699,7 @@
         <v>1</v>
       </c>
       <c r="D2447">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2447">
         <v>395</v>
@@ -50719,7 +50716,7 @@
         <v>1</v>
       </c>
       <c r="D2448">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2448">
         <v>395</v>
@@ -50736,7 +50733,7 @@
         <v>1</v>
       </c>
       <c r="D2449">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2449">
         <v>395</v>
@@ -50753,7 +50750,7 @@
         <v>1</v>
       </c>
       <c r="D2450">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2450">
         <v>395</v>
@@ -50770,7 +50767,7 @@
         <v>1</v>
       </c>
       <c r="D2451">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2451">
         <v>395</v>
@@ -50787,7 +50784,7 @@
         <v>1</v>
       </c>
       <c r="D2452">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2452">
         <v>395</v>
@@ -50804,7 +50801,7 @@
         <v>1</v>
       </c>
       <c r="D2453">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2453">
         <v>395</v>
@@ -50821,7 +50818,7 @@
         <v>1</v>
       </c>
       <c r="D2454">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2454">
         <v>395</v>
@@ -50838,7 +50835,7 @@
         <v>1</v>
       </c>
       <c r="D2455">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2455">
         <v>395</v>
@@ -50855,7 +50852,7 @@
         <v>1</v>
       </c>
       <c r="D2456">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2456">
         <v>395</v>
@@ -50872,7 +50869,7 @@
         <v>1</v>
       </c>
       <c r="D2457">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2457">
         <v>395</v>
@@ -50889,7 +50886,7 @@
         <v>1</v>
       </c>
       <c r="D2458">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2458">
         <v>395</v>
@@ -50906,7 +50903,7 @@
         <v>1</v>
       </c>
       <c r="D2459">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2459">
         <v>395</v>
@@ -50923,7 +50920,7 @@
         <v>1</v>
       </c>
       <c r="D2460">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2460">
         <v>395</v>
@@ -50940,7 +50937,7 @@
         <v>1</v>
       </c>
       <c r="D2461">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2461">
         <v>395</v>
@@ -50957,7 +50954,7 @@
         <v>1</v>
       </c>
       <c r="D2462">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2462">
         <v>395</v>
@@ -50974,7 +50971,7 @@
         <v>1</v>
       </c>
       <c r="D2463">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2463">
         <v>395</v>
@@ -50991,7 +50988,7 @@
         <v>1</v>
       </c>
       <c r="D2464">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2464">
         <v>395</v>
@@ -51008,7 +51005,7 @@
         <v>1</v>
       </c>
       <c r="D2465">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2465">
         <v>395</v>
@@ -51025,7 +51022,7 @@
         <v>1</v>
       </c>
       <c r="D2466">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2466">
         <v>395</v>
@@ -51042,7 +51039,7 @@
         <v>1</v>
       </c>
       <c r="D2467">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2467">
         <v>395</v>
@@ -51059,7 +51056,7 @@
         <v>1</v>
       </c>
       <c r="D2468">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2468">
         <v>395</v>
@@ -51076,7 +51073,7 @@
         <v>1</v>
       </c>
       <c r="D2469">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2469">
         <v>395</v>
@@ -51093,7 +51090,7 @@
         <v>1</v>
       </c>
       <c r="D2470">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2470">
         <v>395</v>
@@ -51110,7 +51107,7 @@
         <v>1</v>
       </c>
       <c r="D2471">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2471">
         <v>395</v>
@@ -51127,7 +51124,7 @@
         <v>1</v>
       </c>
       <c r="D2472">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2472">
         <v>395</v>
@@ -51144,7 +51141,7 @@
         <v>1</v>
       </c>
       <c r="D2473">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2473">
         <v>395</v>
@@ -51161,7 +51158,7 @@
         <v>1</v>
       </c>
       <c r="D2474">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2474">
         <v>395</v>
@@ -51178,7 +51175,7 @@
         <v>1</v>
       </c>
       <c r="D2475">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2475">
         <v>395</v>
@@ -51195,7 +51192,7 @@
         <v>1</v>
       </c>
       <c r="D2476">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2476">
         <v>395</v>
@@ -51212,7 +51209,7 @@
         <v>1</v>
       </c>
       <c r="D2477">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2477">
         <v>395</v>
@@ -51229,7 +51226,7 @@
         <v>1</v>
       </c>
       <c r="D2478">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2478">
         <v>395</v>
@@ -51246,7 +51243,7 @@
         <v>1</v>
       </c>
       <c r="D2479">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2479">
         <v>395</v>
@@ -51263,7 +51260,7 @@
         <v>1</v>
       </c>
       <c r="D2480">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2480">
         <v>395</v>
@@ -51280,7 +51277,7 @@
         <v>1</v>
       </c>
       <c r="D2481">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2481">
         <v>395</v>
@@ -51297,7 +51294,7 @@
         <v>1</v>
       </c>
       <c r="D2482">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2482">
         <v>395</v>
@@ -51314,7 +51311,7 @@
         <v>1</v>
       </c>
       <c r="D2483">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2483">
         <v>395</v>
@@ -51331,7 +51328,7 @@
         <v>1</v>
       </c>
       <c r="D2484">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2484">
         <v>395</v>
@@ -51348,7 +51345,7 @@
         <v>1</v>
       </c>
       <c r="D2485">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2485">
         <v>395</v>
@@ -51365,7 +51362,7 @@
         <v>1</v>
       </c>
       <c r="D2486">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2486">
         <v>395</v>
@@ -51382,7 +51379,7 @@
         <v>1</v>
       </c>
       <c r="D2487">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2487">
         <v>395</v>
@@ -51399,7 +51396,7 @@
         <v>1</v>
       </c>
       <c r="D2488">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2488">
         <v>395</v>
@@ -51416,7 +51413,7 @@
         <v>1</v>
       </c>
       <c r="D2489">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2489">
         <v>395</v>
@@ -51433,7 +51430,7 @@
         <v>1</v>
       </c>
       <c r="D2490">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2490">
         <v>395</v>
@@ -51450,7 +51447,7 @@
         <v>1</v>
       </c>
       <c r="D2491">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2491">
         <v>395</v>
@@ -51467,7 +51464,7 @@
         <v>1</v>
       </c>
       <c r="D2492">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2492">
         <v>395</v>
@@ -51484,7 +51481,7 @@
         <v>1</v>
       </c>
       <c r="D2493">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2493">
         <v>395</v>
@@ -51501,7 +51498,7 @@
         <v>1</v>
       </c>
       <c r="D2494">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2494">
         <v>395</v>
@@ -51518,7 +51515,7 @@
         <v>1</v>
       </c>
       <c r="D2495">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2495">
         <v>395</v>
@@ -51535,7 +51532,7 @@
         <v>1</v>
       </c>
       <c r="D2496">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2496">
         <v>395</v>
@@ -51552,7 +51549,7 @@
         <v>1</v>
       </c>
       <c r="D2497">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2497">
         <v>395</v>
@@ -51569,7 +51566,7 @@
         <v>1</v>
       </c>
       <c r="D2498">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2498">
         <v>395</v>
@@ -51586,7 +51583,7 @@
         <v>1</v>
       </c>
       <c r="D2499">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2499">
         <v>395</v>
@@ -51603,7 +51600,7 @@
         <v>1</v>
       </c>
       <c r="D2500">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2500">
         <v>395</v>
@@ -51620,7 +51617,7 @@
         <v>1</v>
       </c>
       <c r="D2501">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2501">
         <v>395</v>
@@ -51637,7 +51634,7 @@
         <v>1</v>
       </c>
       <c r="D2502">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2502">
         <v>395</v>
@@ -51654,7 +51651,7 @@
         <v>1</v>
       </c>
       <c r="D2503">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2503">
         <v>395</v>
@@ -51671,7 +51668,7 @@
         <v>1</v>
       </c>
       <c r="D2504">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2504">
         <v>395</v>
@@ -51682,16 +51679,16 @@
         <v>2507</v>
       </c>
       <c r="B2505">
-        <v>395</v>
+        <v>640</v>
       </c>
       <c r="C2505">
         <v>1</v>
       </c>
       <c r="D2505">
-        <v>2012</v>
+        <v>1951</v>
       </c>
       <c r="E2505">
-        <v>395</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2506" spans="1:5" x14ac:dyDescent="0.2">
@@ -51705,7 +51702,7 @@
         <v>1</v>
       </c>
       <c r="D2506">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2506">
         <v>640</v>
@@ -51722,7 +51719,7 @@
         <v>1</v>
       </c>
       <c r="D2507">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2507">
         <v>640</v>
@@ -51739,7 +51736,7 @@
         <v>1</v>
       </c>
       <c r="D2508">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2508">
         <v>640</v>
@@ -51756,7 +51753,7 @@
         <v>1</v>
       </c>
       <c r="D2509">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2509">
         <v>640</v>
@@ -51773,7 +51770,7 @@
         <v>1</v>
       </c>
       <c r="D2510">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2510">
         <v>640</v>
@@ -51790,7 +51787,7 @@
         <v>1</v>
       </c>
       <c r="D2511">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2511">
         <v>640</v>
@@ -51807,7 +51804,7 @@
         <v>1</v>
       </c>
       <c r="D2512">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2512">
         <v>640</v>
@@ -51824,7 +51821,7 @@
         <v>1</v>
       </c>
       <c r="D2513">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2513">
         <v>640</v>
@@ -51841,7 +51838,7 @@
         <v>1</v>
       </c>
       <c r="D2514">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2514">
         <v>640</v>
@@ -51858,7 +51855,7 @@
         <v>1</v>
       </c>
       <c r="D2515">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2515">
         <v>640</v>
@@ -51875,7 +51872,7 @@
         <v>1</v>
       </c>
       <c r="D2516">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2516">
         <v>640</v>
@@ -51892,7 +51889,7 @@
         <v>1</v>
       </c>
       <c r="D2517">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2517">
         <v>640</v>
@@ -51909,7 +51906,7 @@
         <v>1</v>
       </c>
       <c r="D2518">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2518">
         <v>640</v>
@@ -51926,7 +51923,7 @@
         <v>1</v>
       </c>
       <c r="D2519">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2519">
         <v>640</v>
@@ -51943,7 +51940,7 @@
         <v>1</v>
       </c>
       <c r="D2520">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2520">
         <v>640</v>
@@ -51960,7 +51957,7 @@
         <v>1</v>
       </c>
       <c r="D2521">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2521">
         <v>640</v>
@@ -51977,7 +51974,7 @@
         <v>1</v>
       </c>
       <c r="D2522">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2522">
         <v>640</v>
@@ -51994,7 +51991,7 @@
         <v>1</v>
       </c>
       <c r="D2523">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2523">
         <v>640</v>
@@ -52011,7 +52008,7 @@
         <v>1</v>
       </c>
       <c r="D2524">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2524">
         <v>640</v>
@@ -52028,7 +52025,7 @@
         <v>1</v>
       </c>
       <c r="D2525">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2525">
         <v>640</v>
@@ -52045,7 +52042,7 @@
         <v>1</v>
       </c>
       <c r="D2526">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2526">
         <v>640</v>
@@ -52062,7 +52059,7 @@
         <v>1</v>
       </c>
       <c r="D2527">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2527">
         <v>640</v>
@@ -52079,7 +52076,7 @@
         <v>1</v>
       </c>
       <c r="D2528">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2528">
         <v>640</v>
@@ -52096,7 +52093,7 @@
         <v>1</v>
       </c>
       <c r="D2529">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2529">
         <v>640</v>
@@ -52113,7 +52110,7 @@
         <v>1</v>
       </c>
       <c r="D2530">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2530">
         <v>640</v>
@@ -52130,7 +52127,7 @@
         <v>1</v>
       </c>
       <c r="D2531">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2531">
         <v>640</v>
@@ -52147,7 +52144,7 @@
         <v>1</v>
       </c>
       <c r="D2532">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2532">
         <v>640</v>
@@ -52164,7 +52161,7 @@
         <v>1</v>
       </c>
       <c r="D2533">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2533">
         <v>640</v>
@@ -52181,7 +52178,7 @@
         <v>1</v>
       </c>
       <c r="D2534">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2534">
         <v>640</v>
@@ -52198,7 +52195,7 @@
         <v>1</v>
       </c>
       <c r="D2535">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2535">
         <v>640</v>
@@ -52215,7 +52212,7 @@
         <v>1</v>
       </c>
       <c r="D2536">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2536">
         <v>640</v>
@@ -52232,7 +52229,7 @@
         <v>1</v>
       </c>
       <c r="D2537">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2537">
         <v>640</v>
@@ -52249,7 +52246,7 @@
         <v>1</v>
       </c>
       <c r="D2538">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2538">
         <v>640</v>
@@ -52266,7 +52263,7 @@
         <v>1</v>
       </c>
       <c r="D2539">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2539">
         <v>640</v>
@@ -52283,7 +52280,7 @@
         <v>1</v>
       </c>
       <c r="D2540">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2540">
         <v>640</v>
@@ -52300,7 +52297,7 @@
         <v>1</v>
       </c>
       <c r="D2541">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2541">
         <v>640</v>
@@ -52317,7 +52314,7 @@
         <v>1</v>
       </c>
       <c r="D2542">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2542">
         <v>640</v>
@@ -52334,7 +52331,7 @@
         <v>1</v>
       </c>
       <c r="D2543">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2543">
         <v>640</v>
@@ -52351,7 +52348,7 @@
         <v>1</v>
       </c>
       <c r="D2544">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2544">
         <v>640</v>
@@ -52368,7 +52365,7 @@
         <v>1</v>
       </c>
       <c r="D2545">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2545">
         <v>640</v>
@@ -52385,7 +52382,7 @@
         <v>1</v>
       </c>
       <c r="D2546">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2546">
         <v>640</v>
@@ -52402,7 +52399,7 @@
         <v>1</v>
       </c>
       <c r="D2547">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2547">
         <v>640</v>
@@ -52419,7 +52416,7 @@
         <v>1</v>
       </c>
       <c r="D2548">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2548">
         <v>640</v>
@@ -52436,7 +52433,7 @@
         <v>1</v>
       </c>
       <c r="D2549">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2549">
         <v>640</v>
@@ -52453,7 +52450,7 @@
         <v>1</v>
       </c>
       <c r="D2550">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2550">
         <v>640</v>
@@ -52470,7 +52467,7 @@
         <v>1</v>
       </c>
       <c r="D2551">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2551">
         <v>640</v>
@@ -52487,7 +52484,7 @@
         <v>1</v>
       </c>
       <c r="D2552">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2552">
         <v>640</v>
@@ -52504,7 +52501,7 @@
         <v>1</v>
       </c>
       <c r="D2553">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2553">
         <v>640</v>
@@ -52521,7 +52518,7 @@
         <v>1</v>
       </c>
       <c r="D2554">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2554">
         <v>640</v>
@@ -52538,7 +52535,7 @@
         <v>1</v>
       </c>
       <c r="D2555">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2555">
         <v>640</v>
@@ -52555,7 +52552,7 @@
         <v>1</v>
       </c>
       <c r="D2556">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2556">
         <v>640</v>
@@ -52572,7 +52569,7 @@
         <v>1</v>
       </c>
       <c r="D2557">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2557">
         <v>640</v>
@@ -52589,7 +52586,7 @@
         <v>1</v>
       </c>
       <c r="D2558">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2558">
         <v>640</v>
@@ -52606,7 +52603,7 @@
         <v>1</v>
       </c>
       <c r="D2559">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2559">
         <v>640</v>
@@ -52623,7 +52620,7 @@
         <v>1</v>
       </c>
       <c r="D2560">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2560">
         <v>640</v>
@@ -52640,7 +52637,7 @@
         <v>1</v>
       </c>
       <c r="D2561">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2561">
         <v>640</v>
@@ -52657,7 +52654,7 @@
         <v>1</v>
       </c>
       <c r="D2562">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2562">
         <v>640</v>
@@ -52674,7 +52671,7 @@
         <v>1</v>
       </c>
       <c r="D2563">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2563">
         <v>640</v>
@@ -52691,7 +52688,7 @@
         <v>1</v>
       </c>
       <c r="D2564">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2564">
         <v>640</v>
@@ -52708,7 +52705,7 @@
         <v>1</v>
       </c>
       <c r="D2565">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2565">
         <v>640</v>
@@ -52725,7 +52722,7 @@
         <v>1</v>
       </c>
       <c r="D2566">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2566">
         <v>640</v>
@@ -52736,16 +52733,16 @@
         <v>2569</v>
       </c>
       <c r="B2567">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="C2567">
         <v>1</v>
       </c>
       <c r="D2567">
-        <v>2012</v>
+        <v>1954</v>
       </c>
       <c r="E2567">
-        <v>640</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2568" spans="1:5" x14ac:dyDescent="0.2">
@@ -52759,7 +52756,7 @@
         <v>1</v>
       </c>
       <c r="D2568">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2568">
         <v>713</v>
@@ -52776,7 +52773,7 @@
         <v>1</v>
       </c>
       <c r="D2569">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2569">
         <v>713</v>
@@ -52793,7 +52790,7 @@
         <v>1</v>
       </c>
       <c r="D2570">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2570">
         <v>713</v>
@@ -52810,7 +52807,7 @@
         <v>1</v>
       </c>
       <c r="D2571">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2571">
         <v>713</v>
@@ -52827,7 +52824,7 @@
         <v>1</v>
       </c>
       <c r="D2572">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2572">
         <v>713</v>
@@ -52844,7 +52841,7 @@
         <v>1</v>
       </c>
       <c r="D2573">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2573">
         <v>713</v>
@@ -52861,7 +52858,7 @@
         <v>1</v>
       </c>
       <c r="D2574">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2574">
         <v>713</v>
@@ -52878,7 +52875,7 @@
         <v>1</v>
       </c>
       <c r="D2575">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2575">
         <v>713</v>
@@ -52895,7 +52892,7 @@
         <v>1</v>
       </c>
       <c r="D2576">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2576">
         <v>713</v>
@@ -52912,7 +52909,7 @@
         <v>1</v>
       </c>
       <c r="D2577">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2577">
         <v>713</v>
@@ -52929,7 +52926,7 @@
         <v>1</v>
       </c>
       <c r="D2578">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2578">
         <v>713</v>
@@ -52946,7 +52943,7 @@
         <v>1</v>
       </c>
       <c r="D2579">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2579">
         <v>713</v>
@@ -52963,7 +52960,7 @@
         <v>1</v>
       </c>
       <c r="D2580">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2580">
         <v>713</v>
@@ -52980,7 +52977,7 @@
         <v>1</v>
       </c>
       <c r="D2581">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2581">
         <v>713</v>
@@ -52997,7 +52994,7 @@
         <v>1</v>
       </c>
       <c r="D2582">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2582">
         <v>713</v>
@@ -53014,7 +53011,7 @@
         <v>1</v>
       </c>
       <c r="D2583">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2583">
         <v>713</v>
@@ -53031,7 +53028,7 @@
         <v>1</v>
       </c>
       <c r="D2584">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2584">
         <v>713</v>
@@ -53048,7 +53045,7 @@
         <v>1</v>
       </c>
       <c r="D2585">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2585">
         <v>713</v>
@@ -53065,7 +53062,7 @@
         <v>1</v>
       </c>
       <c r="D2586">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2586">
         <v>713</v>
@@ -53082,7 +53079,7 @@
         <v>1</v>
       </c>
       <c r="D2587">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2587">
         <v>713</v>
@@ -53099,7 +53096,7 @@
         <v>1</v>
       </c>
       <c r="D2588">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2588">
         <v>713</v>
@@ -53116,7 +53113,7 @@
         <v>1</v>
       </c>
       <c r="D2589">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2589">
         <v>713</v>
@@ -53133,7 +53130,7 @@
         <v>1</v>
       </c>
       <c r="D2590">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2590">
         <v>713</v>
@@ -53150,7 +53147,7 @@
         <v>1</v>
       </c>
       <c r="D2591">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2591">
         <v>713</v>
@@ -53167,7 +53164,7 @@
         <v>1</v>
       </c>
       <c r="D2592">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2592">
         <v>713</v>
@@ -53184,7 +53181,7 @@
         <v>1</v>
       </c>
       <c r="D2593">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2593">
         <v>713</v>
@@ -53195,16 +53192,16 @@
         <v>2596</v>
       </c>
       <c r="B2594">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="C2594">
         <v>1</v>
       </c>
       <c r="D2594">
-        <v>1980</v>
+        <v>1953</v>
       </c>
       <c r="E2594">
-        <v>713</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2595" spans="1:5" x14ac:dyDescent="0.2">
@@ -53218,7 +53215,7 @@
         <v>1</v>
       </c>
       <c r="D2595">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2595">
         <v>732</v>
@@ -53235,7 +53232,7 @@
         <v>1</v>
       </c>
       <c r="D2596">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2596">
         <v>732</v>
@@ -53252,7 +53249,7 @@
         <v>1</v>
       </c>
       <c r="D2597">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2597">
         <v>732</v>
@@ -53269,7 +53266,7 @@
         <v>1</v>
       </c>
       <c r="D2598">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2598">
         <v>732</v>
@@ -53286,7 +53283,7 @@
         <v>1</v>
       </c>
       <c r="D2599">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2599">
         <v>732</v>
@@ -53303,7 +53300,7 @@
         <v>1</v>
       </c>
       <c r="D2600">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2600">
         <v>732</v>
@@ -53320,7 +53317,7 @@
         <v>1</v>
       </c>
       <c r="D2601">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2601">
         <v>732</v>
@@ -53337,7 +53334,7 @@
         <v>1</v>
       </c>
       <c r="D2602">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2602">
         <v>732</v>
@@ -53354,7 +53351,7 @@
         <v>1</v>
       </c>
       <c r="D2603">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2603">
         <v>732</v>
@@ -53371,7 +53368,7 @@
         <v>1</v>
       </c>
       <c r="D2604">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2604">
         <v>732</v>
@@ -53388,7 +53385,7 @@
         <v>1</v>
       </c>
       <c r="D2605">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2605">
         <v>732</v>
@@ -53405,7 +53402,7 @@
         <v>1</v>
       </c>
       <c r="D2606">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2606">
         <v>732</v>
@@ -53422,7 +53419,7 @@
         <v>1</v>
       </c>
       <c r="D2607">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2607">
         <v>732</v>
@@ -53439,7 +53436,7 @@
         <v>1</v>
       </c>
       <c r="D2608">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2608">
         <v>732</v>
@@ -53456,7 +53453,7 @@
         <v>1</v>
       </c>
       <c r="D2609">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2609">
         <v>732</v>
@@ -53473,7 +53470,7 @@
         <v>1</v>
       </c>
       <c r="D2610">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2610">
         <v>732</v>
@@ -53490,7 +53487,7 @@
         <v>1</v>
       </c>
       <c r="D2611">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2611">
         <v>732</v>
@@ -53507,7 +53504,7 @@
         <v>1</v>
       </c>
       <c r="D2612">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2612">
         <v>732</v>
@@ -53524,7 +53521,7 @@
         <v>1</v>
       </c>
       <c r="D2613">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2613">
         <v>732</v>
@@ -53541,7 +53538,7 @@
         <v>1</v>
       </c>
       <c r="D2614">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2614">
         <v>732</v>
@@ -53558,7 +53555,7 @@
         <v>1</v>
       </c>
       <c r="D2615">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2615">
         <v>732</v>
@@ -53575,7 +53572,7 @@
         <v>1</v>
       </c>
       <c r="D2616">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2616">
         <v>732</v>
@@ -53592,7 +53589,7 @@
         <v>1</v>
       </c>
       <c r="D2617">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2617">
         <v>732</v>
@@ -53609,7 +53606,7 @@
         <v>1</v>
       </c>
       <c r="D2618">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2618">
         <v>732</v>
@@ -53626,7 +53623,7 @@
         <v>1</v>
       </c>
       <c r="D2619">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2619">
         <v>732</v>
@@ -53643,7 +53640,7 @@
         <v>1</v>
       </c>
       <c r="D2620">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2620">
         <v>732</v>
@@ -53660,7 +53657,7 @@
         <v>1</v>
       </c>
       <c r="D2621">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2621">
         <v>732</v>
@@ -53677,7 +53674,7 @@
         <v>1</v>
       </c>
       <c r="D2622">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2622">
         <v>732</v>
@@ -53694,7 +53691,7 @@
         <v>1</v>
       </c>
       <c r="D2623">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2623">
         <v>732</v>
@@ -53711,7 +53708,7 @@
         <v>1</v>
       </c>
       <c r="D2624">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2624">
         <v>732</v>
@@ -53728,7 +53725,7 @@
         <v>1</v>
       </c>
       <c r="D2625">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2625">
         <v>732</v>
@@ -53745,7 +53742,7 @@
         <v>1</v>
       </c>
       <c r="D2626">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2626">
         <v>732</v>
@@ -53762,7 +53759,7 @@
         <v>1</v>
       </c>
       <c r="D2627">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2627">
         <v>732</v>
@@ -53779,7 +53776,7 @@
         <v>1</v>
       </c>
       <c r="D2628">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2628">
         <v>732</v>
@@ -53796,7 +53793,7 @@
         <v>1</v>
       </c>
       <c r="D2629">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2629">
         <v>732</v>
@@ -53813,7 +53810,7 @@
         <v>1</v>
       </c>
       <c r="D2630">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2630">
         <v>732</v>
@@ -53830,7 +53827,7 @@
         <v>1</v>
       </c>
       <c r="D2631">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2631">
         <v>732</v>
@@ -53847,7 +53844,7 @@
         <v>1</v>
       </c>
       <c r="D2632">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2632">
         <v>732</v>
@@ -53864,7 +53861,7 @@
         <v>1</v>
       </c>
       <c r="D2633">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2633">
         <v>732</v>
@@ -53881,7 +53878,7 @@
         <v>1</v>
       </c>
       <c r="D2634">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2634">
         <v>732</v>
@@ -53898,7 +53895,7 @@
         <v>1</v>
       </c>
       <c r="D2635">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2635">
         <v>732</v>
@@ -53915,7 +53912,7 @@
         <v>1</v>
       </c>
       <c r="D2636">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2636">
         <v>732</v>
@@ -53932,7 +53929,7 @@
         <v>1</v>
       </c>
       <c r="D2637">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2637">
         <v>732</v>
@@ -53949,7 +53946,7 @@
         <v>1</v>
       </c>
       <c r="D2638">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2638">
         <v>732</v>
@@ -53966,7 +53963,7 @@
         <v>1</v>
       </c>
       <c r="D2639">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2639">
         <v>732</v>
@@ -53983,7 +53980,7 @@
         <v>1</v>
       </c>
       <c r="D2640">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2640">
         <v>732</v>
@@ -54000,7 +53997,7 @@
         <v>1</v>
       </c>
       <c r="D2641">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2641">
         <v>732</v>
@@ -54017,7 +54014,7 @@
         <v>1</v>
       </c>
       <c r="D2642">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2642">
         <v>732</v>
@@ -54034,7 +54031,7 @@
         <v>1</v>
       </c>
       <c r="D2643">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2643">
         <v>732</v>
@@ -54051,7 +54048,7 @@
         <v>1</v>
       </c>
       <c r="D2644">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2644">
         <v>732</v>
@@ -54068,7 +54065,7 @@
         <v>1</v>
       </c>
       <c r="D2645">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2645">
         <v>732</v>
@@ -54085,7 +54082,7 @@
         <v>1</v>
       </c>
       <c r="D2646">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2646">
         <v>732</v>
@@ -54102,7 +54099,7 @@
         <v>1</v>
       </c>
       <c r="D2647">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2647">
         <v>732</v>
@@ -54119,7 +54116,7 @@
         <v>1</v>
       </c>
       <c r="D2648">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2648">
         <v>732</v>
@@ -54136,7 +54133,7 @@
         <v>1</v>
       </c>
       <c r="D2649">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2649">
         <v>732</v>
@@ -54153,7 +54150,7 @@
         <v>1</v>
       </c>
       <c r="D2650">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2650">
         <v>732</v>
@@ -54170,7 +54167,7 @@
         <v>1</v>
       </c>
       <c r="D2651">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2651">
         <v>732</v>
@@ -54187,7 +54184,7 @@
         <v>1</v>
       </c>
       <c r="D2652">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2652">
         <v>732</v>
@@ -54204,7 +54201,7 @@
         <v>1</v>
       </c>
       <c r="D2653">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2653">
         <v>732</v>
@@ -54215,16 +54212,16 @@
         <v>2656</v>
       </c>
       <c r="B2654">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="C2654">
         <v>1</v>
       </c>
       <c r="D2654">
-        <v>2012</v>
+        <v>1951</v>
       </c>
       <c r="E2654">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2655" spans="1:5" x14ac:dyDescent="0.2">
@@ -54238,7 +54235,7 @@
         <v>1</v>
       </c>
       <c r="D2655">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2655">
         <v>740</v>
@@ -54255,7 +54252,7 @@
         <v>1</v>
       </c>
       <c r="D2656">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2656">
         <v>740</v>
@@ -54272,7 +54269,7 @@
         <v>1</v>
       </c>
       <c r="D2657">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2657">
         <v>740</v>
@@ -54289,7 +54286,7 @@
         <v>1</v>
       </c>
       <c r="D2658">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2658">
         <v>740</v>
@@ -54306,7 +54303,7 @@
         <v>1</v>
       </c>
       <c r="D2659">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2659">
         <v>740</v>
@@ -54323,7 +54320,7 @@
         <v>1</v>
       </c>
       <c r="D2660">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2660">
         <v>740</v>
@@ -54340,7 +54337,7 @@
         <v>1</v>
       </c>
       <c r="D2661">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2661">
         <v>740</v>
@@ -54357,7 +54354,7 @@
         <v>1</v>
       </c>
       <c r="D2662">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2662">
         <v>740</v>
@@ -54374,7 +54371,7 @@
         <v>1</v>
       </c>
       <c r="D2663">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2663">
         <v>740</v>
@@ -54391,7 +54388,7 @@
         <v>1</v>
       </c>
       <c r="D2664">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2664">
         <v>740</v>
@@ -54408,7 +54405,7 @@
         <v>1</v>
       </c>
       <c r="D2665">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2665">
         <v>740</v>
@@ -54425,7 +54422,7 @@
         <v>1</v>
       </c>
       <c r="D2666">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2666">
         <v>740</v>
@@ -54442,7 +54439,7 @@
         <v>1</v>
       </c>
       <c r="D2667">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2667">
         <v>740</v>
@@ -54459,7 +54456,7 @@
         <v>1</v>
       </c>
       <c r="D2668">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2668">
         <v>740</v>
@@ -54476,7 +54473,7 @@
         <v>1</v>
       </c>
       <c r="D2669">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2669">
         <v>740</v>
@@ -54493,7 +54490,7 @@
         <v>1</v>
       </c>
       <c r="D2670">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2670">
         <v>740</v>
@@ -54510,7 +54507,7 @@
         <v>1</v>
       </c>
       <c r="D2671">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2671">
         <v>740</v>
@@ -54527,7 +54524,7 @@
         <v>1</v>
       </c>
       <c r="D2672">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2672">
         <v>740</v>
@@ -54544,7 +54541,7 @@
         <v>1</v>
       </c>
       <c r="D2673">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2673">
         <v>740</v>
@@ -54561,7 +54558,7 @@
         <v>1</v>
       </c>
       <c r="D2674">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2674">
         <v>740</v>
@@ -54578,7 +54575,7 @@
         <v>1</v>
       </c>
       <c r="D2675">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2675">
         <v>740</v>
@@ -54595,7 +54592,7 @@
         <v>1</v>
       </c>
       <c r="D2676">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2676">
         <v>740</v>
@@ -54612,7 +54609,7 @@
         <v>1</v>
       </c>
       <c r="D2677">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2677">
         <v>740</v>
@@ -54629,7 +54626,7 @@
         <v>1</v>
       </c>
       <c r="D2678">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2678">
         <v>740</v>
@@ -54646,7 +54643,7 @@
         <v>1</v>
       </c>
       <c r="D2679">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2679">
         <v>740</v>
@@ -54663,7 +54660,7 @@
         <v>1</v>
       </c>
       <c r="D2680">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2680">
         <v>740</v>
@@ -54680,7 +54677,7 @@
         <v>1</v>
       </c>
       <c r="D2681">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2681">
         <v>740</v>
@@ -54697,7 +54694,7 @@
         <v>1</v>
       </c>
       <c r="D2682">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2682">
         <v>740</v>
@@ -54714,7 +54711,7 @@
         <v>1</v>
       </c>
       <c r="D2683">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2683">
         <v>740</v>
@@ -54731,7 +54728,7 @@
         <v>1</v>
       </c>
       <c r="D2684">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2684">
         <v>740</v>
@@ -54748,7 +54745,7 @@
         <v>1</v>
       </c>
       <c r="D2685">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2685">
         <v>740</v>
@@ -54765,7 +54762,7 @@
         <v>1</v>
       </c>
       <c r="D2686">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2686">
         <v>740</v>
@@ -54782,7 +54779,7 @@
         <v>1</v>
       </c>
       <c r="D2687">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2687">
         <v>740</v>
@@ -54799,7 +54796,7 @@
         <v>1</v>
       </c>
       <c r="D2688">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2688">
         <v>740</v>
@@ -54816,7 +54813,7 @@
         <v>1</v>
       </c>
       <c r="D2689">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2689">
         <v>740</v>
@@ -54833,7 +54830,7 @@
         <v>1</v>
       </c>
       <c r="D2690">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2690">
         <v>740</v>
@@ -54850,7 +54847,7 @@
         <v>1</v>
       </c>
       <c r="D2691">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2691">
         <v>740</v>
@@ -54867,7 +54864,7 @@
         <v>1</v>
       </c>
       <c r="D2692">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2692">
         <v>740</v>
@@ -54884,7 +54881,7 @@
         <v>1</v>
       </c>
       <c r="D2693">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2693">
         <v>740</v>
@@ -54895,16 +54892,16 @@
         <v>2696</v>
       </c>
       <c r="B2694">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="C2694">
         <v>1</v>
       </c>
       <c r="D2694">
-        <v>1990</v>
+        <v>1959</v>
       </c>
       <c r="E2694">
-        <v>740</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2695" spans="1:5" x14ac:dyDescent="0.2">
@@ -54918,7 +54915,7 @@
         <v>1</v>
       </c>
       <c r="D2695">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2695">
         <v>770</v>
@@ -54935,7 +54932,7 @@
         <v>1</v>
       </c>
       <c r="D2696">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2696">
         <v>770</v>
@@ -54952,7 +54949,7 @@
         <v>1</v>
       </c>
       <c r="D2697">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2697">
         <v>770</v>
@@ -54969,7 +54966,7 @@
         <v>1</v>
       </c>
       <c r="D2698">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2698">
         <v>770</v>
@@ -54986,7 +54983,7 @@
         <v>1</v>
       </c>
       <c r="D2699">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2699">
         <v>770</v>
@@ -55003,7 +55000,7 @@
         <v>1</v>
       </c>
       <c r="D2700">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2700">
         <v>770</v>
@@ -55020,7 +55017,7 @@
         <v>1</v>
       </c>
       <c r="D2701">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2701">
         <v>770</v>
@@ -55037,7 +55034,7 @@
         <v>1</v>
       </c>
       <c r="D2702">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2702">
         <v>770</v>
@@ -55054,7 +55051,7 @@
         <v>1</v>
       </c>
       <c r="D2703">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2703">
         <v>770</v>
@@ -55071,7 +55068,7 @@
         <v>1</v>
       </c>
       <c r="D2704">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2704">
         <v>770</v>
@@ -55088,7 +55085,7 @@
         <v>1</v>
       </c>
       <c r="D2705">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2705">
         <v>770</v>
@@ -55105,7 +55102,7 @@
         <v>1</v>
       </c>
       <c r="D2706">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2706">
         <v>770</v>
@@ -55122,7 +55119,7 @@
         <v>1</v>
       </c>
       <c r="D2707">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2707">
         <v>770</v>
@@ -55139,7 +55136,7 @@
         <v>1</v>
       </c>
       <c r="D2708">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2708">
         <v>770</v>
@@ -55156,7 +55153,7 @@
         <v>1</v>
       </c>
       <c r="D2709">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2709">
         <v>770</v>
@@ -55173,7 +55170,7 @@
         <v>1</v>
       </c>
       <c r="D2710">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2710">
         <v>770</v>
@@ -55190,7 +55187,7 @@
         <v>1</v>
       </c>
       <c r="D2711">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2711">
         <v>770</v>
@@ -55207,7 +55204,7 @@
         <v>1</v>
       </c>
       <c r="D2712">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2712">
         <v>770</v>
@@ -55224,7 +55221,7 @@
         <v>1</v>
       </c>
       <c r="D2713">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2713">
         <v>770</v>
@@ -55241,7 +55238,7 @@
         <v>1</v>
       </c>
       <c r="D2714">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2714">
         <v>770</v>
@@ -55258,7 +55255,7 @@
         <v>1</v>
       </c>
       <c r="D2715">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2715">
         <v>770</v>
@@ -55275,7 +55272,7 @@
         <v>1</v>
       </c>
       <c r="D2716">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2716">
         <v>770</v>
@@ -55292,7 +55289,7 @@
         <v>1</v>
       </c>
       <c r="D2717">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2717">
         <v>770</v>
@@ -55309,7 +55306,7 @@
         <v>1</v>
       </c>
       <c r="D2718">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2718">
         <v>770</v>
@@ -55326,7 +55323,7 @@
         <v>1</v>
       </c>
       <c r="D2719">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2719">
         <v>770</v>
@@ -55343,7 +55340,7 @@
         <v>1</v>
       </c>
       <c r="D2720">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2720">
         <v>770</v>
@@ -55360,7 +55357,7 @@
         <v>1</v>
       </c>
       <c r="D2721">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2721">
         <v>770</v>
@@ -55377,7 +55374,7 @@
         <v>1</v>
       </c>
       <c r="D2722">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2722">
         <v>770</v>
@@ -55394,7 +55391,7 @@
         <v>1</v>
       </c>
       <c r="D2723">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2723">
         <v>770</v>
@@ -55411,7 +55408,7 @@
         <v>1</v>
       </c>
       <c r="D2724">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2724">
         <v>770</v>
@@ -55428,7 +55425,7 @@
         <v>1</v>
       </c>
       <c r="D2725">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2725">
         <v>770</v>
@@ -55445,7 +55442,7 @@
         <v>1</v>
       </c>
       <c r="D2726">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2726">
         <v>770</v>
@@ -55462,7 +55459,7 @@
         <v>1</v>
       </c>
       <c r="D2727">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2727">
         <v>770</v>
@@ -55479,7 +55476,7 @@
         <v>1</v>
       </c>
       <c r="D2728">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2728">
         <v>770</v>
@@ -55496,7 +55493,7 @@
         <v>1</v>
       </c>
       <c r="D2729">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2729">
         <v>770</v>
@@ -55513,7 +55510,7 @@
         <v>1</v>
       </c>
       <c r="D2730">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2730">
         <v>770</v>
@@ -55530,7 +55527,7 @@
         <v>1</v>
       </c>
       <c r="D2731">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2731">
         <v>770</v>
@@ -55547,7 +55544,7 @@
         <v>1</v>
       </c>
       <c r="D2732">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2732">
         <v>770</v>
@@ -55564,7 +55561,7 @@
         <v>1</v>
       </c>
       <c r="D2733">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2733">
         <v>770</v>
@@ -55581,7 +55578,7 @@
         <v>1</v>
       </c>
       <c r="D2734">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2734">
         <v>770</v>
@@ -55598,7 +55595,7 @@
         <v>1</v>
       </c>
       <c r="D2735">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2735">
         <v>770</v>
@@ -55615,7 +55612,7 @@
         <v>1</v>
       </c>
       <c r="D2736">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2736">
         <v>770</v>
@@ -55632,7 +55629,7 @@
         <v>1</v>
       </c>
       <c r="D2737">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2737">
         <v>770</v>
@@ -55649,7 +55646,7 @@
         <v>1</v>
       </c>
       <c r="D2738">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2738">
         <v>770</v>
@@ -55666,7 +55663,7 @@
         <v>1</v>
       </c>
       <c r="D2739">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2739">
         <v>770</v>
@@ -55683,7 +55680,7 @@
         <v>1</v>
       </c>
       <c r="D2740">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2740">
         <v>770</v>
@@ -55700,7 +55697,7 @@
         <v>1</v>
       </c>
       <c r="D2741">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2741">
         <v>770</v>
@@ -55717,7 +55714,7 @@
         <v>1</v>
       </c>
       <c r="D2742">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2742">
         <v>770</v>
@@ -55734,7 +55731,7 @@
         <v>1</v>
       </c>
       <c r="D2743">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2743">
         <v>770</v>
@@ -55751,7 +55748,7 @@
         <v>1</v>
       </c>
       <c r="D2744">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2744">
         <v>770</v>
@@ -55768,7 +55765,7 @@
         <v>1</v>
       </c>
       <c r="D2745">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2745">
         <v>770</v>
@@ -55785,7 +55782,7 @@
         <v>1</v>
       </c>
       <c r="D2746">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2746">
         <v>770</v>
@@ -55802,7 +55799,7 @@
         <v>1</v>
       </c>
       <c r="D2747">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2747">
         <v>770</v>
@@ -55813,16 +55810,16 @@
         <v>2750</v>
       </c>
       <c r="B2748">
-        <v>770</v>
+        <v>840</v>
       </c>
       <c r="C2748">
         <v>1</v>
       </c>
       <c r="D2748">
-        <v>2012</v>
+        <v>1951</v>
       </c>
       <c r="E2748">
-        <v>770</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2749" spans="1:5" x14ac:dyDescent="0.2">
@@ -55836,7 +55833,7 @@
         <v>1</v>
       </c>
       <c r="D2749">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2749">
         <v>840</v>
@@ -55853,7 +55850,7 @@
         <v>1</v>
       </c>
       <c r="D2750">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2750">
         <v>840</v>
@@ -55870,7 +55867,7 @@
         <v>1</v>
       </c>
       <c r="D2751">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2751">
         <v>840</v>
@@ -55887,7 +55884,7 @@
         <v>1</v>
       </c>
       <c r="D2752">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2752">
         <v>840</v>
@@ -55904,7 +55901,7 @@
         <v>1</v>
       </c>
       <c r="D2753">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2753">
         <v>840</v>
@@ -55921,7 +55918,7 @@
         <v>1</v>
       </c>
       <c r="D2754">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2754">
         <v>840</v>
@@ -55938,7 +55935,7 @@
         <v>1</v>
       </c>
       <c r="D2755">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2755">
         <v>840</v>
@@ -55955,7 +55952,7 @@
         <v>1</v>
       </c>
       <c r="D2756">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2756">
         <v>840</v>
@@ -55972,7 +55969,7 @@
         <v>1</v>
       </c>
       <c r="D2757">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2757">
         <v>840</v>
@@ -55989,7 +55986,7 @@
         <v>1</v>
       </c>
       <c r="D2758">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2758">
         <v>840</v>
@@ -56006,7 +56003,7 @@
         <v>1</v>
       </c>
       <c r="D2759">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2759">
         <v>840</v>
@@ -56023,7 +56020,7 @@
         <v>1</v>
       </c>
       <c r="D2760">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2760">
         <v>840</v>
@@ -56040,7 +56037,7 @@
         <v>1</v>
       </c>
       <c r="D2761">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2761">
         <v>840</v>
@@ -56057,7 +56054,7 @@
         <v>1</v>
       </c>
       <c r="D2762">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2762">
         <v>840</v>
@@ -56074,7 +56071,7 @@
         <v>1</v>
       </c>
       <c r="D2763">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2763">
         <v>840</v>
@@ -56091,7 +56088,7 @@
         <v>1</v>
       </c>
       <c r="D2764">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2764">
         <v>840</v>
@@ -56108,7 +56105,7 @@
         <v>1</v>
       </c>
       <c r="D2765">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2765">
         <v>840</v>
@@ -56125,7 +56122,7 @@
         <v>1</v>
       </c>
       <c r="D2766">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2766">
         <v>840</v>
@@ -56142,7 +56139,7 @@
         <v>1</v>
       </c>
       <c r="D2767">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2767">
         <v>840</v>
@@ -56159,7 +56156,7 @@
         <v>1</v>
       </c>
       <c r="D2768">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2768">
         <v>840</v>
@@ -56176,7 +56173,7 @@
         <v>1</v>
       </c>
       <c r="D2769">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2769">
         <v>840</v>
@@ -56193,7 +56190,7 @@
         <v>1</v>
       </c>
       <c r="D2770">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2770">
         <v>840</v>
@@ -56210,7 +56207,7 @@
         <v>1</v>
       </c>
       <c r="D2771">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2771">
         <v>840</v>
@@ -56227,7 +56224,7 @@
         <v>1</v>
       </c>
       <c r="D2772">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2772">
         <v>840</v>
@@ -56244,7 +56241,7 @@
         <v>1</v>
       </c>
       <c r="D2773">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2773">
         <v>840</v>
@@ -56261,7 +56258,7 @@
         <v>1</v>
       </c>
       <c r="D2774">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2774">
         <v>840</v>
@@ -56278,7 +56275,7 @@
         <v>1</v>
       </c>
       <c r="D2775">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2775">
         <v>840</v>
@@ -56295,7 +56292,7 @@
         <v>1</v>
       </c>
       <c r="D2776">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2776">
         <v>840</v>
@@ -56312,7 +56309,7 @@
         <v>1</v>
       </c>
       <c r="D2777">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2777">
         <v>840</v>
@@ -56329,7 +56326,7 @@
         <v>1</v>
       </c>
       <c r="D2778">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2778">
         <v>840</v>
@@ -56346,7 +56343,7 @@
         <v>1</v>
       </c>
       <c r="D2779">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2779">
         <v>840</v>
@@ -56363,7 +56360,7 @@
         <v>1</v>
       </c>
       <c r="D2780">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2780">
         <v>840</v>
@@ -56380,7 +56377,7 @@
         <v>1</v>
       </c>
       <c r="D2781">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2781">
         <v>840</v>
@@ -56397,7 +56394,7 @@
         <v>1</v>
       </c>
       <c r="D2782">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2782">
         <v>840</v>
@@ -56414,7 +56411,7 @@
         <v>1</v>
       </c>
       <c r="D2783">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2783">
         <v>840</v>
@@ -56431,7 +56428,7 @@
         <v>1</v>
       </c>
       <c r="D2784">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2784">
         <v>840</v>
@@ -56448,7 +56445,7 @@
         <v>1</v>
       </c>
       <c r="D2785">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2785">
         <v>840</v>
@@ -56465,7 +56462,7 @@
         <v>1</v>
       </c>
       <c r="D2786">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2786">
         <v>840</v>
@@ -56482,7 +56479,7 @@
         <v>1</v>
       </c>
       <c r="D2787">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2787">
         <v>840</v>
@@ -56499,7 +56496,7 @@
         <v>1</v>
       </c>
       <c r="D2788">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2788">
         <v>840</v>
@@ -56516,7 +56513,7 @@
         <v>1</v>
       </c>
       <c r="D2789">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2789">
         <v>840</v>
@@ -56533,7 +56530,7 @@
         <v>1</v>
       </c>
       <c r="D2790">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2790">
         <v>840</v>
@@ -56550,7 +56547,7 @@
         <v>1</v>
       </c>
       <c r="D2791">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2791">
         <v>840</v>
@@ -56567,7 +56564,7 @@
         <v>1</v>
       </c>
       <c r="D2792">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2792">
         <v>840</v>
@@ -56584,7 +56581,7 @@
         <v>1</v>
       </c>
       <c r="D2793">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2793">
         <v>840</v>
@@ -56601,7 +56598,7 @@
         <v>1</v>
       </c>
       <c r="D2794">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2794">
         <v>840</v>
@@ -56618,7 +56615,7 @@
         <v>1</v>
       </c>
       <c r="D2795">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2795">
         <v>840</v>
@@ -56635,7 +56632,7 @@
         <v>1</v>
       </c>
       <c r="D2796">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2796">
         <v>840</v>
@@ -56652,7 +56649,7 @@
         <v>1</v>
       </c>
       <c r="D2797">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2797">
         <v>840</v>
@@ -56669,7 +56666,7 @@
         <v>1</v>
       </c>
       <c r="D2798">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2798">
         <v>840</v>
@@ -56686,7 +56683,7 @@
         <v>1</v>
       </c>
       <c r="D2799">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2799">
         <v>840</v>
@@ -56703,7 +56700,7 @@
         <v>1</v>
       </c>
       <c r="D2800">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2800">
         <v>840</v>
@@ -56720,7 +56717,7 @@
         <v>1</v>
       </c>
       <c r="D2801">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2801">
         <v>840</v>
@@ -56737,7 +56734,7 @@
         <v>1</v>
       </c>
       <c r="D2802">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2802">
         <v>840</v>
@@ -56754,7 +56751,7 @@
         <v>1</v>
       </c>
       <c r="D2803">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2803">
         <v>840</v>
@@ -56771,7 +56768,7 @@
         <v>1</v>
       </c>
       <c r="D2804">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2804">
         <v>840</v>
@@ -56788,7 +56785,7 @@
         <v>1</v>
       </c>
       <c r="D2805">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2805">
         <v>840</v>
@@ -56805,7 +56802,7 @@
         <v>1</v>
       </c>
       <c r="D2806">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2806">
         <v>840</v>
@@ -56822,7 +56819,7 @@
         <v>1</v>
       </c>
       <c r="D2807">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2807">
         <v>840</v>
@@ -56839,7 +56836,7 @@
         <v>1</v>
       </c>
       <c r="D2808">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2808">
         <v>840</v>
@@ -56856,7 +56853,7 @@
         <v>1</v>
       </c>
       <c r="D2809">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2809">
         <v>840</v>
@@ -56867,16 +56864,16 @@
         <v>2812</v>
       </c>
       <c r="B2810">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="C2810">
         <v>1</v>
       </c>
       <c r="D2810">
-        <v>2012</v>
+        <v>1951</v>
       </c>
       <c r="E2810">
-        <v>840</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2811" spans="1:5" x14ac:dyDescent="0.2">
@@ -56890,7 +56887,7 @@
         <v>1</v>
       </c>
       <c r="D2811">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2811">
         <v>900</v>
@@ -56907,7 +56904,7 @@
         <v>1</v>
       </c>
       <c r="D2812">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2812">
         <v>900</v>
@@ -56924,7 +56921,7 @@
         <v>1</v>
       </c>
       <c r="D2813">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2813">
         <v>900</v>
@@ -56941,7 +56938,7 @@
         <v>1</v>
       </c>
       <c r="D2814">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2814">
         <v>900</v>
@@ -56958,7 +56955,7 @@
         <v>1</v>
       </c>
       <c r="D2815">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2815">
         <v>900</v>
@@ -56975,7 +56972,7 @@
         <v>1</v>
       </c>
       <c r="D2816">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2816">
         <v>900</v>
@@ -56992,7 +56989,7 @@
         <v>1</v>
       </c>
       <c r="D2817">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2817">
         <v>900</v>
@@ -57009,7 +57006,7 @@
         <v>1</v>
       </c>
       <c r="D2818">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2818">
         <v>900</v>
@@ -57026,7 +57023,7 @@
         <v>1</v>
       </c>
       <c r="D2819">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2819">
         <v>900</v>
@@ -57043,7 +57040,7 @@
         <v>1</v>
       </c>
       <c r="D2820">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2820">
         <v>900</v>
@@ -57060,7 +57057,7 @@
         <v>1</v>
       </c>
       <c r="D2821">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2821">
         <v>900</v>
@@ -57077,7 +57074,7 @@
         <v>1</v>
       </c>
       <c r="D2822">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2822">
         <v>900</v>
@@ -57094,7 +57091,7 @@
         <v>1</v>
       </c>
       <c r="D2823">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2823">
         <v>900</v>
@@ -57111,7 +57108,7 @@
         <v>1</v>
       </c>
       <c r="D2824">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2824">
         <v>900</v>
@@ -57128,7 +57125,7 @@
         <v>1</v>
       </c>
       <c r="D2825">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2825">
         <v>900</v>
@@ -57145,7 +57142,7 @@
         <v>1</v>
       </c>
       <c r="D2826">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2826">
         <v>900</v>
@@ -57162,7 +57159,7 @@
         <v>1</v>
       </c>
       <c r="D2827">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2827">
         <v>900</v>
@@ -57179,7 +57176,7 @@
         <v>1</v>
       </c>
       <c r="D2828">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2828">
         <v>900</v>
@@ -57196,7 +57193,7 @@
         <v>1</v>
       </c>
       <c r="D2829">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2829">
         <v>900</v>
@@ -57213,7 +57210,7 @@
         <v>1</v>
       </c>
       <c r="D2830">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2830">
         <v>900</v>
@@ -57230,7 +57227,7 @@
         <v>1</v>
       </c>
       <c r="D2831">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2831">
         <v>900</v>
@@ -57247,7 +57244,7 @@
         <v>1</v>
       </c>
       <c r="D2832">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2832">
         <v>900</v>
@@ -57264,7 +57261,7 @@
         <v>1</v>
       </c>
       <c r="D2833">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2833">
         <v>900</v>
@@ -57281,7 +57278,7 @@
         <v>1</v>
       </c>
       <c r="D2834">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2834">
         <v>900</v>
@@ -57298,7 +57295,7 @@
         <v>1</v>
       </c>
       <c r="D2835">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2835">
         <v>900</v>
@@ -57315,7 +57312,7 @@
         <v>1</v>
       </c>
       <c r="D2836">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2836">
         <v>900</v>
@@ -57332,7 +57329,7 @@
         <v>1</v>
       </c>
       <c r="D2837">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2837">
         <v>900</v>
@@ -57349,7 +57346,7 @@
         <v>1</v>
       </c>
       <c r="D2838">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2838">
         <v>900</v>
@@ -57366,7 +57363,7 @@
         <v>1</v>
       </c>
       <c r="D2839">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2839">
         <v>900</v>
@@ -57383,7 +57380,7 @@
         <v>1</v>
       </c>
       <c r="D2840">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2840">
         <v>900</v>
@@ -57400,7 +57397,7 @@
         <v>1</v>
       </c>
       <c r="D2841">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2841">
         <v>900</v>
@@ -57417,7 +57414,7 @@
         <v>1</v>
       </c>
       <c r="D2842">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2842">
         <v>900</v>
@@ -57434,7 +57431,7 @@
         <v>1</v>
       </c>
       <c r="D2843">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2843">
         <v>900</v>
@@ -57451,7 +57448,7 @@
         <v>1</v>
       </c>
       <c r="D2844">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2844">
         <v>900</v>
@@ -57468,7 +57465,7 @@
         <v>1</v>
       </c>
       <c r="D2845">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2845">
         <v>900</v>
@@ -57485,7 +57482,7 @@
         <v>1</v>
       </c>
       <c r="D2846">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E2846">
         <v>900</v>
@@ -57502,7 +57499,7 @@
         <v>1</v>
       </c>
       <c r="D2847">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E2847">
         <v>900</v>
@@ -57519,7 +57516,7 @@
         <v>1</v>
       </c>
       <c r="D2848">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E2848">
         <v>900</v>
@@ -57536,7 +57533,7 @@
         <v>1</v>
       </c>
       <c r="D2849">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E2849">
         <v>900</v>
@@ -57553,7 +57550,7 @@
         <v>1</v>
       </c>
       <c r="D2850">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E2850">
         <v>900</v>
@@ -57570,7 +57567,7 @@
         <v>1</v>
       </c>
       <c r="D2851">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E2851">
         <v>900</v>
@@ -57587,7 +57584,7 @@
         <v>1</v>
       </c>
       <c r="D2852">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E2852">
         <v>900</v>
@@ -57604,7 +57601,7 @@
         <v>1</v>
       </c>
       <c r="D2853">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E2853">
         <v>900</v>
@@ -57621,7 +57618,7 @@
         <v>1</v>
       </c>
       <c r="D2854">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="E2854">
         <v>900</v>
@@ -57638,7 +57635,7 @@
         <v>1</v>
       </c>
       <c r="D2855">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E2855">
         <v>900</v>
@@ -57655,7 +57652,7 @@
         <v>1</v>
       </c>
       <c r="D2856">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E2856">
         <v>900</v>
@@ -57672,7 +57669,7 @@
         <v>1</v>
       </c>
       <c r="D2857">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E2857">
         <v>900</v>
@@ -57689,7 +57686,7 @@
         <v>1</v>
       </c>
       <c r="D2858">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E2858">
         <v>900</v>
@@ -57706,7 +57703,7 @@
         <v>1</v>
       </c>
       <c r="D2859">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E2859">
         <v>900</v>
@@ -57723,7 +57720,7 @@
         <v>1</v>
       </c>
       <c r="D2860">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E2860">
         <v>900</v>
@@ -57740,7 +57737,7 @@
         <v>1</v>
       </c>
       <c r="D2861">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E2861">
         <v>900</v>
@@ -57757,7 +57754,7 @@
         <v>1</v>
       </c>
       <c r="D2862">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E2862">
         <v>900</v>
@@ -57774,7 +57771,7 @@
         <v>1</v>
       </c>
       <c r="D2863">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E2863">
         <v>900</v>
@@ -57791,7 +57788,7 @@
         <v>1</v>
       </c>
       <c r="D2864">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E2864">
         <v>900</v>
@@ -57808,7 +57805,7 @@
         <v>1</v>
       </c>
       <c r="D2865">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E2865">
         <v>900</v>
@@ -57825,7 +57822,7 @@
         <v>1</v>
       </c>
       <c r="D2866">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E2866">
         <v>900</v>
@@ -57842,7 +57839,7 @@
         <v>1</v>
       </c>
       <c r="D2867">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E2867">
         <v>900</v>
@@ -57859,7 +57856,7 @@
         <v>1</v>
       </c>
       <c r="D2868">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E2868">
         <v>900</v>
@@ -57876,7 +57873,7 @@
         <v>1</v>
       </c>
       <c r="D2869">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2869">
         <v>900</v>
@@ -57893,7 +57890,7 @@
         <v>1</v>
       </c>
       <c r="D2870">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E2870">
         <v>900</v>
@@ -57910,7 +57907,7 @@
         <v>1</v>
       </c>
       <c r="D2871">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E2871">
         <v>900</v>
@@ -57921,16 +57918,16 @@
         <v>2874</v>
       </c>
       <c r="B2872">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="C2872">
         <v>1</v>
       </c>
       <c r="D2872">
-        <v>2012</v>
+        <v>1951</v>
       </c>
       <c r="E2872">
-        <v>900</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2873" spans="1:5" x14ac:dyDescent="0.2">
@@ -57944,7 +57941,7 @@
         <v>1</v>
       </c>
       <c r="D2873">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E2873">
         <v>920</v>
@@ -57961,7 +57958,7 @@
         <v>1</v>
       </c>
       <c r="D2874">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E2874">
         <v>920</v>
@@ -57978,7 +57975,7 @@
         <v>1</v>
       </c>
       <c r="D2875">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E2875">
         <v>920</v>
@@ -57995,7 +57992,7 @@
         <v>1</v>
       </c>
       <c r="D2876">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E2876">
         <v>920</v>
@@ -58012,7 +58009,7 @@
         <v>1</v>
       </c>
       <c r="D2877">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E2877">
         <v>920</v>
@@ -58029,7 +58026,7 @@
         <v>1</v>
       </c>
       <c r="D2878">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E2878">
         <v>920</v>
@@ -58046,7 +58043,7 @@
         <v>1</v>
       </c>
       <c r="D2879">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E2879">
         <v>920</v>
@@ -58063,7 +58060,7 @@
         <v>1</v>
       </c>
       <c r="D2880">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="E2880">
         <v>920</v>
@@ -58080,7 +58077,7 @@
         <v>1</v>
       </c>
       <c r="D2881">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E2881">
         <v>920</v>
@@ -58097,7 +58094,7 @@
         <v>1</v>
       </c>
       <c r="D2882">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E2882">
         <v>920</v>
@@ -58114,7 +58111,7 @@
         <v>1</v>
       </c>
       <c r="D2883">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E2883">
         <v>920</v>
@@ -58131,7 +58128,7 @@
         <v>1</v>
       </c>
       <c r="D2884">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E2884">
         <v>920</v>
@@ -58148,7 +58145,7 @@
         <v>1</v>
       </c>
       <c r="D2885">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E2885">
         <v>920</v>
@@ -58165,7 +58162,7 @@
         <v>1</v>
       </c>
       <c r="D2886">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="E2886">
         <v>920</v>
@@ -58182,7 +58179,7 @@
         <v>1</v>
       </c>
       <c r="D2887">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E2887">
         <v>920</v>
@@ -58199,7 +58196,7 @@
         <v>1</v>
       </c>
       <c r="D2888">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E2888">
         <v>920</v>
@@ -58216,7 +58213,7 @@
         <v>1</v>
       </c>
       <c r="D2889">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E2889">
         <v>920</v>
@@ -58233,7 +58230,7 @@
         <v>1</v>
       </c>
       <c r="D2890">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E2890">
         <v>920</v>
@@ -58250,7 +58247,7 @@
         <v>1</v>
       </c>
       <c r="D2891">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="E2891">
         <v>920</v>
@@ -58267,7 +58264,7 @@
         <v>1</v>
       </c>
       <c r="D2892">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E2892">
         <v>920</v>
@@ -58284,7 +58281,7 @@
         <v>1</v>
       </c>
       <c r="D2893">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="E2893">
         <v>920</v>
@@ -58301,7 +58298,7 @@
         <v>1</v>
       </c>
       <c r="D2894">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E2894">
         <v>920</v>
@@ -58318,7 +58315,7 @@
         <v>1</v>
       </c>
       <c r="D2895">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E2895">
         <v>920</v>
@@ -58335,7 +58332,7 @@
         <v>1</v>
       </c>
       <c r="D2896">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E2896">
         <v>920</v>
@@ -58352,7 +58349,7 @@
         <v>1</v>
       </c>
       <c r="D2897">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E2897">
         <v>920</v>
@@ -58369,7 +58366,7 @@
         <v>1</v>
       </c>
       <c r="D2898">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E2898">
         <v>920</v>
@@ -58386,7 +58383,7 @@
         <v>1</v>
       </c>
       <c r="D2899">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E2899">
         <v>920</v>
@@ -58403,7 +58400,7 @@
         <v>1</v>
       </c>
       <c r="D2900">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E2900">
         <v>920</v>
@@ -58420,7 +58417,7 @@
         <v>1</v>
       </c>
       <c r="D2901">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E2901">
         <v>920</v>
@@ -58437,7 +58434,7 @@
         <v>1</v>
       </c>
       <c r="D2902">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E2902">
         <v>920</v>
@@ -58454,7 +58451,7 @@
         <v>1</v>
       </c>
       <c r="D2903">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E2903">
         <v>920</v>
@@ -58471,7 +58468,7 @@
         <v>1</v>
       </c>
       <c r="D2904">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E2904">
         <v>920</v>
@@ -58488,7 +58485,7 @@
         <v>1</v>
       </c>
       <c r="D2905">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E2905">
         <v>920</v>
@@ -58505,7 +58502,7 @@
         <v>1</v>
       </c>
       <c r="D2906">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E2906">
         <v>920</v>
@@ -58522,26 +58519,9 @@
         <v>1</v>
       </c>
       <c r="D2907">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E2907">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="2908" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2908" t="s">
-        <v>2910</v>
-      </c>
-      <c r="B2908">
-        <v>920</v>
-      </c>
-      <c r="C2908">
-        <v>1</v>
-      </c>
-      <c r="D2908">
-        <v>1986</v>
-      </c>
-      <c r="E2908">
         <v>920</v>
       </c>
     </row>
